--- a/data/div5_gauges_analysis.xlsx
+++ b/data/div5_gauges_analysis.xlsx
@@ -1,39 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ananyagangadhar/Desktop/M.Eng Project/Shortages_network/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{CE2E1A94-88DD-A641-8D10-088BC0451142}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{7D6ABBBD-C506-104C-A4BD-3E56D76BEB8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="23100" windowHeight="16440"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23100" windowHeight="16400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="div5_gauges" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">div5_gauges!$T$1:$T$2</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">div5_gauges!$T$3:$T$396</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">div5_gauges!$P$1:$P$2</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">div5_gauges!$P$3:$P$396</definedName>
     <definedName name="_xlchart.v1.10" hidden="1">div5_gauges!$U$1:$U$2</definedName>
     <definedName name="_xlchart.v1.11" hidden="1">div5_gauges!$U$3:$U$396</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">div5_gauges!$T$1:$T$2</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">div5_gauges!$T$3:$T$396</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">div5_gauges!$U$1:$U$2</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">div5_gauges!$U$3:$U$396</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">div5_gauges!$U$1:$U$2</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">div5_gauges!$U$3:$U$396</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">div5_gauges!$P$1:$P$2</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">div5_gauges!$P$3:$P$396</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">div5_gauges!$U$1:$U$2</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">div5_gauges!$U$3:$U$396</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">div5_gauges!$P$1:$P$2</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">div5_gauges!$P$3:$P$396</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">div5_gauges!$P$1:$P$2</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">div5_gauges!$P$3:$P$396</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">div5_gauges!$P$1:$P$2</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">div5_gauges!$P$3:$P$396</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">div5_gauges!$P$1:$P$2</definedName>
     <definedName name="_xlchart.v1.5" hidden="1">div5_gauges!$P$3:$P$396</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">div5_gauges!$P$1:$P$2</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">div5_gauges!$P$3:$P$396</definedName>
-    <definedName name="_xlchart.v2.12" hidden="1">div5_gauges!$P$1:$P$2</definedName>
-    <definedName name="_xlchart.v2.13" hidden="1">div5_gauges!$P$3:$P$396</definedName>
-    <definedName name="_xlchart.v2.6" hidden="1">div5_gauges!$P$1:$P$2</definedName>
-    <definedName name="_xlchart.v2.7" hidden="1">div5_gauges!$P$3:$P$396</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">div5_gauges!$P$1:$P$2</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">div5_gauges!$P$3:$P$396</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">div5_gauges!$T$1:$T$2</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">div5_gauges!$T$3:$T$396</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -2369,9 +2371,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -2854,7 +2856,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
@@ -2919,7 +2921,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.15</cx:f>
+        <cx:f>_xlchart.v1.9</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2957,7 +2959,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{57A7AF43-3C9C-C948-A305-53F15CFF91CC}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.14</cx:f>
+              <cx:f>_xlchart.v1.8</cx:f>
               <cx:v/>
             </cx:txData>
           </cx:tx>
@@ -3121,6 +3123,7 @@
           </cx:txPr>
         </cx:title>
         <cx:tickLabels/>
+        <cx:numFmt formatCode="0" sourceLinked="0"/>
       </cx:axis>
       <cx:axis id="1">
         <cx:valScaling/>
@@ -3152,7 +3155,6 @@
             </a:p>
           </cx:txPr>
         </cx:title>
-        <cx:majorGridlines/>
         <cx:tickLabels/>
       </cx:axis>
     </cx:plotArea>
@@ -3165,18 +3167,17 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.5</cx:f>
+        <cx:f>_xlchart.v1.7</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
   <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0"/>
     <cx:plotArea>
       <cx:plotAreaRegion>
         <cx:series layoutId="clusteredColumn" uniqueId="{8BBABAAA-462B-184F-A56D-5EC1282FF19F}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.4</cx:f>
+              <cx:f>_xlchart.v1.6</cx:f>
               <cx:v/>
             </cx:txData>
           </cx:tx>
@@ -3188,10 +3189,67 @@
       </cx:plotAreaRegion>
       <cx:axis id="0">
         <cx:catScaling gapWidth="0"/>
+        <cx:title>
+          <cx:tx>
+            <cx:txData>
+              <cx:v>End Date</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:txPr>
+            <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+            <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0%">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65%"/>
+                      <a:lumOff val="35%"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                </a:rPr>
+                <a:t>End Date</a:t>
+              </a:r>
+            </a:p>
+          </cx:txPr>
+        </cx:title>
         <cx:tickLabels/>
+        <cx:numFmt formatCode="[$-en-US]mmmmm-yy;@" sourceLinked="0"/>
       </cx:axis>
       <cx:axis id="1">
         <cx:valScaling/>
+        <cx:title>
+          <cx:tx>
+            <cx:txData>
+              <cx:v>Number of gauges</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:txPr>
+            <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+            <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0%">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65%"/>
+                      <a:lumOff val="35%"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                </a:rPr>
+                <a:t>Number of gauges</a:t>
+              </a:r>
+            </a:p>
+          </cx:txPr>
+        </cx:title>
         <cx:tickLabels/>
       </cx:axis>
     </cx:plotArea>
@@ -3240,81 +3298,55 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" meth="cycle" id="20">
+  <a:schemeClr val="dk1"/>
   <cs:variation>
-    <a:lumMod val="60%"/>
+    <a:tint val="88.5%"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="80%"/>
-    <a:lumOff val="20%"/>
+    <a:tint val="55%"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="80%"/>
+    <a:tint val="75%"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="60%"/>
-    <a:lumOff val="40%"/>
+    <a:tint val="98.5%"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="50%"/>
+    <a:tint val="30%"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="70%"/>
-    <a:lumOff val="30%"/>
+    <a:tint val="60%"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="70%"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50%"/>
-    <a:lumOff val="50%"/>
+    <a:tint val="80%"/>
   </cs:variation>
 </cs:colorStyle>
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" meth="cycle" id="20">
+  <a:schemeClr val="dk1"/>
   <cs:variation>
-    <a:lumMod val="60%"/>
+    <a:tint val="88.5%"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="80%"/>
-    <a:lumOff val="20%"/>
+    <a:tint val="55%"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="80%"/>
+    <a:tint val="75%"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="60%"/>
-    <a:lumOff val="40%"/>
+    <a:tint val="98.5%"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="50%"/>
+    <a:tint val="30%"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="70%"/>
-    <a:lumOff val="30%"/>
+    <a:tint val="60%"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="70%"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50%"/>
-    <a:lumOff val="50%"/>
+    <a:tint val="80%"/>
   </cs:variation>
 </cs:colorStyle>
 </file>
@@ -5009,8 +5041,8 @@
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
@@ -5049,7 +5081,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="21532850" y="4495800"/>
-              <a:ext cx="12731750" cy="3073400"/>
+              <a:ext cx="8312150" cy="3073400"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -5378,11 +5410,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V396"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M6" workbookViewId="0">
-      <selection activeCell="V20" sqref="V20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AI28" sqref="AI28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5543,11 +5575,11 @@
         <v>30</v>
       </c>
       <c r="T4">
-        <f>DATEDIF(O4,P4,"D")</f>
+        <f t="shared" ref="T4:T67" si="0">DATEDIF(O4,P4,"D")</f>
         <v>2312</v>
       </c>
       <c r="U4">
-        <f>T4/365</f>
+        <f t="shared" ref="U4:U67" si="1">T4/365</f>
         <v>6.3342465753424655</v>
       </c>
       <c r="V4" s="2" t="s">
@@ -5613,11 +5645,11 @@
         <v>30</v>
       </c>
       <c r="T5">
-        <f>DATEDIF(O5,P5,"D")</f>
+        <f t="shared" si="0"/>
         <v>152</v>
       </c>
       <c r="U5">
-        <f>T5/365</f>
+        <f t="shared" si="1"/>
         <v>0.41643835616438357</v>
       </c>
       <c r="V5" s="4">
@@ -5684,11 +5716,11 @@
         <v>30</v>
       </c>
       <c r="T6">
-        <f>DATEDIF(O6,P6,"D")</f>
+        <f t="shared" si="0"/>
         <v>2008</v>
       </c>
       <c r="U6">
-        <f>T6/365</f>
+        <f t="shared" si="1"/>
         <v>5.5013698630136982</v>
       </c>
     </row>
@@ -5751,11 +5783,11 @@
         <v>30</v>
       </c>
       <c r="T7">
-        <f>DATEDIF(O7,P7,"D")</f>
+        <f t="shared" si="0"/>
         <v>1460</v>
       </c>
       <c r="U7">
-        <f>T7/365</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -5815,11 +5847,11 @@
         <v>30</v>
       </c>
       <c r="T8">
-        <f>DATEDIF(O8,P8,"D")</f>
+        <f t="shared" si="0"/>
         <v>3365</v>
       </c>
       <c r="U8">
-        <f>T8/365</f>
+        <f t="shared" si="1"/>
         <v>9.2191780821917817</v>
       </c>
     </row>
@@ -5882,11 +5914,11 @@
         <v>30</v>
       </c>
       <c r="T9">
-        <f>DATEDIF(O9,P9,"D")</f>
+        <f t="shared" si="0"/>
         <v>31491</v>
       </c>
       <c r="U9">
-        <f>T9/365</f>
+        <f t="shared" si="1"/>
         <v>86.276712328767118</v>
       </c>
     </row>
@@ -5949,11 +5981,11 @@
         <v>30</v>
       </c>
       <c r="T10">
-        <f>DATEDIF(O10,P10,"D")</f>
+        <f t="shared" si="0"/>
         <v>31491</v>
       </c>
       <c r="U10">
-        <f>T10/365</f>
+        <f t="shared" si="1"/>
         <v>86.276712328767118</v>
       </c>
     </row>
@@ -6016,11 +6048,11 @@
         <v>30</v>
       </c>
       <c r="T11">
-        <f>DATEDIF(O11,P11,"D")</f>
+        <f t="shared" si="0"/>
         <v>2556</v>
       </c>
       <c r="U11">
-        <f>T11/365</f>
+        <f t="shared" si="1"/>
         <v>7.0027397260273974</v>
       </c>
     </row>
@@ -6083,11 +6115,11 @@
         <v>30</v>
       </c>
       <c r="T12">
-        <f>DATEDIF(O12,P12,"D")</f>
+        <f t="shared" si="0"/>
         <v>16800</v>
       </c>
       <c r="U12">
-        <f>T12/365</f>
+        <f t="shared" si="1"/>
         <v>46.027397260273972</v>
       </c>
     </row>
@@ -6150,11 +6182,11 @@
         <v>30</v>
       </c>
       <c r="T13">
-        <f>DATEDIF(O13,P13,"D")</f>
+        <f t="shared" si="0"/>
         <v>729</v>
       </c>
       <c r="U13">
-        <f>T13/365</f>
+        <f t="shared" si="1"/>
         <v>1.9972602739726026</v>
       </c>
     </row>
@@ -6217,11 +6249,11 @@
         <v>30</v>
       </c>
       <c r="T14">
-        <f>DATEDIF(O14,P14,"D")</f>
+        <f t="shared" si="0"/>
         <v>3652</v>
       </c>
       <c r="U14">
-        <f>T14/365</f>
+        <f t="shared" si="1"/>
         <v>10.005479452054795</v>
       </c>
     </row>
@@ -6281,11 +6313,11 @@
         <v>30</v>
       </c>
       <c r="T15">
-        <f>DATEDIF(O15,P15,"D")</f>
+        <f t="shared" si="0"/>
         <v>4900</v>
       </c>
       <c r="U15">
-        <f>T15/365</f>
+        <f t="shared" si="1"/>
         <v>13.424657534246576</v>
       </c>
     </row>
@@ -6348,11 +6380,11 @@
         <v>30</v>
       </c>
       <c r="T16">
-        <f>DATEDIF(O16,P16,"D")</f>
+        <f t="shared" si="0"/>
         <v>1733</v>
       </c>
       <c r="U16">
-        <f>T16/365</f>
+        <f t="shared" si="1"/>
         <v>4.7479452054794518</v>
       </c>
     </row>
@@ -6415,11 +6447,11 @@
         <v>30</v>
       </c>
       <c r="T17">
-        <f>DATEDIF(O17,P17,"D")</f>
+        <f t="shared" si="0"/>
         <v>23029</v>
       </c>
       <c r="U17">
-        <f>T17/365</f>
+        <f t="shared" si="1"/>
         <v>63.093150684931508</v>
       </c>
     </row>
@@ -6482,11 +6514,11 @@
         <v>30</v>
       </c>
       <c r="T18">
-        <f>DATEDIF(O18,P18,"D")</f>
+        <f t="shared" si="0"/>
         <v>2190</v>
       </c>
       <c r="U18">
-        <f>T18/365</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
@@ -6549,11 +6581,11 @@
         <v>30</v>
       </c>
       <c r="T19">
-        <f>DATEDIF(O19,P19,"D")</f>
+        <f t="shared" si="0"/>
         <v>19084</v>
       </c>
       <c r="U19">
-        <f>T19/365</f>
+        <f t="shared" si="1"/>
         <v>52.284931506849318</v>
       </c>
     </row>
@@ -6616,11 +6648,11 @@
         <v>30</v>
       </c>
       <c r="T20">
-        <f>DATEDIF(O20,P20,"D")</f>
+        <f t="shared" si="0"/>
         <v>3286</v>
       </c>
       <c r="U20">
-        <f>T20/365</f>
+        <f t="shared" si="1"/>
         <v>9.0027397260273965</v>
       </c>
     </row>
@@ -6680,11 +6712,11 @@
         <v>30</v>
       </c>
       <c r="T21">
-        <f>DATEDIF(O21,P21,"D")</f>
+        <f t="shared" si="0"/>
         <v>2921</v>
       </c>
       <c r="U21">
-        <f>T21/365</f>
+        <f t="shared" si="1"/>
         <v>8.0027397260273965</v>
       </c>
     </row>
@@ -6744,11 +6776,11 @@
         <v>30</v>
       </c>
       <c r="T22">
-        <f>DATEDIF(O22,P22,"D")</f>
+        <f t="shared" si="0"/>
         <v>1825</v>
       </c>
       <c r="U22">
-        <f>T22/365</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
@@ -6808,11 +6840,11 @@
         <v>30</v>
       </c>
       <c r="T23">
-        <f>DATEDIF(O23,P23,"D")</f>
+        <f t="shared" si="0"/>
         <v>15705</v>
       </c>
       <c r="U23">
-        <f>T23/365</f>
+        <f t="shared" si="1"/>
         <v>43.027397260273972</v>
       </c>
     </row>
@@ -6872,11 +6904,11 @@
         <v>30</v>
       </c>
       <c r="T24">
-        <f>DATEDIF(O24,P24,"D")</f>
+        <f t="shared" si="0"/>
         <v>17610</v>
       </c>
       <c r="U24">
-        <f>T24/365</f>
+        <f t="shared" si="1"/>
         <v>48.246575342465754</v>
       </c>
     </row>
@@ -6936,11 +6968,11 @@
         <v>30</v>
       </c>
       <c r="T25">
-        <f>DATEDIF(O25,P25,"D")</f>
+        <f t="shared" si="0"/>
         <v>36889</v>
       </c>
       <c r="U25">
-        <f>T25/365</f>
+        <f t="shared" si="1"/>
         <v>101.06575342465753</v>
       </c>
     </row>
@@ -7003,11 +7035,11 @@
         <v>30</v>
       </c>
       <c r="T26">
-        <f>DATEDIF(O26,P26,"D")</f>
+        <f t="shared" si="0"/>
         <v>20472</v>
       </c>
       <c r="U26">
-        <f>T26/365</f>
+        <f t="shared" si="1"/>
         <v>56.087671232876716</v>
       </c>
     </row>
@@ -7067,11 +7099,11 @@
         <v>30</v>
       </c>
       <c r="T27">
-        <f>DATEDIF(O27,P27,"D")</f>
+        <f t="shared" si="0"/>
         <v>4046</v>
       </c>
       <c r="U27">
-        <f>T27/365</f>
+        <f t="shared" si="1"/>
         <v>11.084931506849315</v>
       </c>
     </row>
@@ -7134,11 +7166,11 @@
         <v>30</v>
       </c>
       <c r="T28">
-        <f>DATEDIF(O28,P28,"D")</f>
+        <f t="shared" si="0"/>
         <v>14628</v>
       </c>
       <c r="U28">
-        <f>T28/365</f>
+        <f t="shared" si="1"/>
         <v>40.076712328767123</v>
       </c>
     </row>
@@ -7198,11 +7230,11 @@
         <v>30</v>
       </c>
       <c r="T29">
-        <f>DATEDIF(O29,P29,"D")</f>
+        <f t="shared" si="0"/>
         <v>14694</v>
       </c>
       <c r="U29">
-        <f>T29/365</f>
+        <f t="shared" si="1"/>
         <v>40.257534246575339</v>
       </c>
     </row>
@@ -7265,11 +7297,11 @@
         <v>30</v>
       </c>
       <c r="T30">
-        <f>DATEDIF(O30,P30,"D")</f>
+        <f t="shared" si="0"/>
         <v>24228</v>
       </c>
       <c r="U30">
-        <f>T30/365</f>
+        <f t="shared" si="1"/>
         <v>66.37808219178082</v>
       </c>
     </row>
@@ -7332,11 +7364,11 @@
         <v>30</v>
       </c>
       <c r="T31">
-        <f>DATEDIF(O31,P31,"D")</f>
+        <f t="shared" si="0"/>
         <v>40104</v>
       </c>
       <c r="U31">
-        <f>T31/365</f>
+        <f t="shared" si="1"/>
         <v>109.87397260273973</v>
       </c>
     </row>
@@ -7399,11 +7431,11 @@
         <v>30</v>
       </c>
       <c r="T32">
-        <f>DATEDIF(O32,P32,"D")</f>
+        <f t="shared" si="0"/>
         <v>26662</v>
       </c>
       <c r="U32">
-        <f>T32/365</f>
+        <f t="shared" si="1"/>
         <v>73.046575342465758</v>
       </c>
     </row>
@@ -7466,11 +7498,11 @@
         <v>30</v>
       </c>
       <c r="T33">
-        <f>DATEDIF(O33,P33,"D")</f>
+        <f t="shared" si="0"/>
         <v>6209</v>
       </c>
       <c r="U33">
-        <f>T33/365</f>
+        <f t="shared" si="1"/>
         <v>17.010958904109589</v>
       </c>
     </row>
@@ -7533,11 +7565,11 @@
         <v>30</v>
       </c>
       <c r="T34">
-        <f>DATEDIF(O34,P34,"D")</f>
+        <f t="shared" si="0"/>
         <v>2525</v>
       </c>
       <c r="U34">
-        <f>T34/365</f>
+        <f t="shared" si="1"/>
         <v>6.9178082191780819</v>
       </c>
     </row>
@@ -7597,11 +7629,11 @@
         <v>30</v>
       </c>
       <c r="T35">
-        <f>DATEDIF(O35,P35,"D")</f>
+        <f t="shared" si="0"/>
         <v>5326</v>
       </c>
       <c r="U35">
-        <f>T35/365</f>
+        <f t="shared" si="1"/>
         <v>14.591780821917808</v>
       </c>
     </row>
@@ -7661,11 +7693,11 @@
         <v>30</v>
       </c>
       <c r="T36">
-        <f>DATEDIF(O36,P36,"D")</f>
+        <f t="shared" si="0"/>
         <v>2283</v>
       </c>
       <c r="U36">
-        <f>T36/365</f>
+        <f t="shared" si="1"/>
         <v>6.2547945205479456</v>
       </c>
     </row>
@@ -7728,11 +7760,11 @@
         <v>30</v>
       </c>
       <c r="T37">
-        <f>DATEDIF(O37,P37,"D")</f>
+        <f t="shared" si="0"/>
         <v>2494</v>
       </c>
       <c r="U37">
-        <f>T37/365</f>
+        <f t="shared" si="1"/>
         <v>6.8328767123287673</v>
       </c>
     </row>
@@ -7792,11 +7824,11 @@
         <v>30</v>
       </c>
       <c r="T38">
-        <f>DATEDIF(O38,P38,"D")</f>
+        <f t="shared" si="0"/>
         <v>22097</v>
       </c>
       <c r="U38">
-        <f>T38/365</f>
+        <f t="shared" si="1"/>
         <v>60.539726027397258</v>
       </c>
     </row>
@@ -7859,11 +7891,11 @@
         <v>30</v>
       </c>
       <c r="T39">
-        <f>DATEDIF(O39,P39,"D")</f>
+        <f t="shared" si="0"/>
         <v>31795</v>
       </c>
       <c r="U39">
-        <f>T39/365</f>
+        <f t="shared" si="1"/>
         <v>87.109589041095887</v>
       </c>
     </row>
@@ -7926,11 +7958,11 @@
         <v>30</v>
       </c>
       <c r="T40">
-        <f>DATEDIF(O40,P40,"D")</f>
+        <f t="shared" si="0"/>
         <v>3744</v>
       </c>
       <c r="U40">
-        <f>T40/365</f>
+        <f t="shared" si="1"/>
         <v>10.257534246575343</v>
       </c>
     </row>
@@ -7990,11 +8022,11 @@
         <v>30</v>
       </c>
       <c r="T41">
-        <f>DATEDIF(O41,P41,"D")</f>
+        <f t="shared" si="0"/>
         <v>3104</v>
       </c>
       <c r="U41">
-        <f>T41/365</f>
+        <f t="shared" si="1"/>
         <v>8.5041095890410965</v>
       </c>
     </row>
@@ -8057,11 +8089,11 @@
         <v>30</v>
       </c>
       <c r="T42">
-        <f>DATEDIF(O42,P42,"D")</f>
+        <f t="shared" si="0"/>
         <v>822</v>
       </c>
       <c r="U42">
-        <f>T42/365</f>
+        <f t="shared" si="1"/>
         <v>2.2520547945205478</v>
       </c>
     </row>
@@ -8124,11 +8156,11 @@
         <v>30</v>
       </c>
       <c r="T43">
-        <f>DATEDIF(O43,P43,"D")</f>
+        <f t="shared" si="0"/>
         <v>5478</v>
       </c>
       <c r="U43">
-        <f>T43/365</f>
+        <f t="shared" si="1"/>
         <v>15.008219178082191</v>
       </c>
     </row>
@@ -8191,11 +8223,11 @@
         <v>30</v>
       </c>
       <c r="T44">
-        <f>DATEDIF(O44,P44,"D")</f>
+        <f t="shared" si="0"/>
         <v>4382</v>
       </c>
       <c r="U44">
-        <f>T44/365</f>
+        <f t="shared" si="1"/>
         <v>12.005479452054795</v>
       </c>
     </row>
@@ -8258,11 +8290,11 @@
         <v>30</v>
       </c>
       <c r="T45">
-        <f>DATEDIF(O45,P45,"D")</f>
+        <f t="shared" si="0"/>
         <v>1825</v>
       </c>
       <c r="U45">
-        <f>T45/365</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
@@ -8325,11 +8357,11 @@
         <v>30</v>
       </c>
       <c r="T46">
-        <f>DATEDIF(O46,P46,"D")</f>
+        <f t="shared" si="0"/>
         <v>2343</v>
       </c>
       <c r="U46">
-        <f>T46/365</f>
+        <f t="shared" si="1"/>
         <v>6.419178082191781</v>
       </c>
     </row>
@@ -8392,11 +8424,11 @@
         <v>30</v>
       </c>
       <c r="T47">
-        <f>DATEDIF(O47,P47,"D")</f>
+        <f t="shared" si="0"/>
         <v>2343</v>
       </c>
       <c r="U47">
-        <f>T47/365</f>
+        <f t="shared" si="1"/>
         <v>6.419178082191781</v>
       </c>
     </row>
@@ -8459,11 +8491,11 @@
         <v>30</v>
       </c>
       <c r="T48">
-        <f>DATEDIF(O48,P48,"D")</f>
+        <f t="shared" si="0"/>
         <v>7304</v>
       </c>
       <c r="U48">
-        <f>T48/365</f>
+        <f t="shared" si="1"/>
         <v>20.010958904109589</v>
       </c>
     </row>
@@ -8526,11 +8558,11 @@
         <v>30</v>
       </c>
       <c r="T49">
-        <f>DATEDIF(O49,P49,"D")</f>
+        <f t="shared" si="0"/>
         <v>3744</v>
       </c>
       <c r="U49">
-        <f>T49/365</f>
+        <f t="shared" si="1"/>
         <v>10.257534246575343</v>
       </c>
     </row>
@@ -8593,11 +8625,11 @@
         <v>30</v>
       </c>
       <c r="T50">
-        <f>DATEDIF(O50,P50,"D")</f>
+        <f t="shared" si="0"/>
         <v>10976</v>
       </c>
       <c r="U50">
-        <f>T50/365</f>
+        <f t="shared" si="1"/>
         <v>30.07123287671233</v>
       </c>
     </row>
@@ -8660,11 +8692,11 @@
         <v>30</v>
       </c>
       <c r="T51">
-        <f>DATEDIF(O51,P51,"D")</f>
+        <f t="shared" si="0"/>
         <v>3834</v>
       </c>
       <c r="U51">
-        <f>T51/365</f>
+        <f t="shared" si="1"/>
         <v>10.504109589041096</v>
       </c>
     </row>
@@ -8727,11 +8759,11 @@
         <v>30</v>
       </c>
       <c r="T52">
-        <f>DATEDIF(O52,P52,"D")</f>
+        <f t="shared" si="0"/>
         <v>5112</v>
       </c>
       <c r="U52">
-        <f>T52/365</f>
+        <f t="shared" si="1"/>
         <v>14.005479452054795</v>
       </c>
     </row>
@@ -8794,11 +8826,11 @@
         <v>30</v>
       </c>
       <c r="T53">
-        <f>DATEDIF(O53,P53,"D")</f>
+        <f t="shared" si="0"/>
         <v>26681</v>
       </c>
       <c r="U53">
-        <f>T53/365</f>
+        <f t="shared" si="1"/>
         <v>73.098630136986301</v>
       </c>
     </row>
@@ -8861,11 +8893,11 @@
         <v>30</v>
       </c>
       <c r="T54">
-        <f>DATEDIF(O54,P54,"D")</f>
+        <f t="shared" si="0"/>
         <v>9860</v>
       </c>
       <c r="U54">
-        <f>T54/365</f>
+        <f t="shared" si="1"/>
         <v>27.013698630136986</v>
       </c>
     </row>
@@ -8928,11 +8960,11 @@
         <v>30</v>
       </c>
       <c r="T55">
-        <f>DATEDIF(O55,P55,"D")</f>
+        <f t="shared" si="0"/>
         <v>2556</v>
       </c>
       <c r="U55">
-        <f>T55/365</f>
+        <f t="shared" si="1"/>
         <v>7.0027397260273974</v>
       </c>
     </row>
@@ -8995,11 +9027,11 @@
         <v>30</v>
       </c>
       <c r="T56">
-        <f>DATEDIF(O56,P56,"D")</f>
+        <f t="shared" si="0"/>
         <v>1156</v>
       </c>
       <c r="U56">
-        <f>T56/365</f>
+        <f t="shared" si="1"/>
         <v>3.1671232876712327</v>
       </c>
     </row>
@@ -9062,11 +9094,11 @@
         <v>30</v>
       </c>
       <c r="T57">
-        <f>DATEDIF(O57,P57,"D")</f>
+        <f t="shared" si="0"/>
         <v>3286</v>
       </c>
       <c r="U57">
-        <f>T57/365</f>
+        <f t="shared" si="1"/>
         <v>9.0027397260273965</v>
       </c>
     </row>
@@ -9129,11 +9161,11 @@
         <v>30</v>
       </c>
       <c r="T58">
-        <f>DATEDIF(O58,P58,"D")</f>
+        <f t="shared" si="0"/>
         <v>7102</v>
       </c>
       <c r="U58">
-        <f>T58/365</f>
+        <f t="shared" si="1"/>
         <v>19.457534246575342</v>
       </c>
     </row>
@@ -9196,11 +9228,11 @@
         <v>30</v>
       </c>
       <c r="T59">
-        <f>DATEDIF(O59,P59,"D")</f>
+        <f t="shared" si="0"/>
         <v>20107</v>
       </c>
       <c r="U59">
-        <f>T59/365</f>
+        <f t="shared" si="1"/>
         <v>55.087671232876716</v>
       </c>
     </row>
@@ -9263,11 +9295,11 @@
         <v>30</v>
       </c>
       <c r="T60">
-        <f>DATEDIF(O60,P60,"D")</f>
+        <f t="shared" si="0"/>
         <v>14609</v>
       </c>
       <c r="U60">
-        <f>T60/365</f>
+        <f t="shared" si="1"/>
         <v>40.024657534246572</v>
       </c>
     </row>
@@ -9330,11 +9362,11 @@
         <v>30</v>
       </c>
       <c r="T61">
-        <f>DATEDIF(O61,P61,"D")</f>
+        <f t="shared" si="0"/>
         <v>6939</v>
       </c>
       <c r="U61">
-        <f>T61/365</f>
+        <f t="shared" si="1"/>
         <v>19.010958904109589</v>
       </c>
     </row>
@@ -9397,11 +9429,11 @@
         <v>30</v>
       </c>
       <c r="T62">
-        <f>DATEDIF(O62,P62,"D")</f>
+        <f t="shared" si="0"/>
         <v>1825</v>
       </c>
       <c r="U62">
-        <f>T62/365</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
@@ -9464,11 +9496,11 @@
         <v>30</v>
       </c>
       <c r="T63">
-        <f>DATEDIF(O63,P63,"D")</f>
+        <f t="shared" si="0"/>
         <v>19570</v>
       </c>
       <c r="U63">
-        <f>T63/365</f>
+        <f t="shared" si="1"/>
         <v>53.61643835616438</v>
       </c>
     </row>
@@ -9531,11 +9563,11 @@
         <v>30</v>
       </c>
       <c r="T64">
-        <f>DATEDIF(O64,P64,"D")</f>
+        <f t="shared" si="0"/>
         <v>3287</v>
       </c>
       <c r="U64">
-        <f>T64/365</f>
+        <f t="shared" si="1"/>
         <v>9.0054794520547947</v>
       </c>
     </row>
@@ -9598,11 +9630,11 @@
         <v>30</v>
       </c>
       <c r="T65">
-        <f>DATEDIF(O65,P65,"D")</f>
+        <f t="shared" si="0"/>
         <v>42448</v>
       </c>
       <c r="U65">
-        <f>T65/365</f>
+        <f t="shared" si="1"/>
         <v>116.2958904109589</v>
       </c>
     </row>
@@ -9662,11 +9694,11 @@
         <v>30</v>
       </c>
       <c r="T66">
-        <f>DATEDIF(O66,P66,"D")</f>
+        <f t="shared" si="0"/>
         <v>16070</v>
       </c>
       <c r="U66">
-        <f>T66/365</f>
+        <f t="shared" si="1"/>
         <v>44.027397260273972</v>
       </c>
     </row>
@@ -9726,11 +9758,11 @@
         <v>30</v>
       </c>
       <c r="T67">
-        <f>DATEDIF(O67,P67,"D")</f>
+        <f t="shared" si="0"/>
         <v>26681</v>
       </c>
       <c r="U67">
-        <f>T67/365</f>
+        <f t="shared" si="1"/>
         <v>73.098630136986301</v>
       </c>
     </row>
@@ -9793,11 +9825,11 @@
         <v>30</v>
       </c>
       <c r="T68">
-        <f>DATEDIF(O68,P68,"D")</f>
+        <f t="shared" ref="T68:T131" si="2">DATEDIF(O68,P68,"D")</f>
         <v>16436</v>
       </c>
       <c r="U68">
-        <f>T68/365</f>
+        <f t="shared" ref="U68:U131" si="3">T68/365</f>
         <v>45.030136986301372</v>
       </c>
     </row>
@@ -9857,11 +9889,11 @@
         <v>30</v>
       </c>
       <c r="T69">
-        <f>DATEDIF(O69,P69,"D")</f>
+        <f t="shared" si="2"/>
         <v>2556</v>
       </c>
       <c r="U69">
-        <f>T69/365</f>
+        <f t="shared" si="3"/>
         <v>7.0027397260273974</v>
       </c>
     </row>
@@ -9924,11 +9956,11 @@
         <v>30</v>
       </c>
       <c r="T70">
-        <f>DATEDIF(O70,P70,"D")</f>
+        <f t="shared" si="2"/>
         <v>851</v>
       </c>
       <c r="U70">
-        <f>T70/365</f>
+        <f t="shared" si="3"/>
         <v>2.3315068493150686</v>
       </c>
     </row>
@@ -9991,11 +10023,11 @@
         <v>30</v>
       </c>
       <c r="T71">
-        <f>DATEDIF(O71,P71,"D")</f>
+        <f t="shared" si="2"/>
         <v>4748</v>
       </c>
       <c r="U71">
-        <f>T71/365</f>
+        <f t="shared" si="3"/>
         <v>13.008219178082191</v>
       </c>
     </row>
@@ -10058,11 +10090,11 @@
         <v>30</v>
       </c>
       <c r="T72">
-        <f>DATEDIF(O72,P72,"D")</f>
+        <f t="shared" si="2"/>
         <v>2313</v>
       </c>
       <c r="U72">
-        <f>T72/365</f>
+        <f t="shared" si="3"/>
         <v>6.3369863013698629</v>
       </c>
     </row>
@@ -10122,11 +10154,11 @@
         <v>30</v>
       </c>
       <c r="T73">
-        <f>DATEDIF(O73,P73,"D")</f>
+        <f t="shared" si="2"/>
         <v>2191</v>
       </c>
       <c r="U73">
-        <f>T73/365</f>
+        <f t="shared" si="3"/>
         <v>6.0027397260273974</v>
       </c>
     </row>
@@ -10189,11 +10221,11 @@
         <v>30</v>
       </c>
       <c r="T74">
-        <f>DATEDIF(O74,P74,"D")</f>
+        <f t="shared" si="2"/>
         <v>2494</v>
       </c>
       <c r="U74">
-        <f>T74/365</f>
+        <f t="shared" si="3"/>
         <v>6.8328767123287673</v>
       </c>
     </row>
@@ -10253,11 +10285,11 @@
         <v>30</v>
       </c>
       <c r="T75">
-        <f>DATEDIF(O75,P75,"D")</f>
+        <f t="shared" si="2"/>
         <v>822</v>
       </c>
       <c r="U75">
-        <f>T75/365</f>
+        <f t="shared" si="3"/>
         <v>2.2520547945205478</v>
       </c>
     </row>
@@ -10320,11 +10352,11 @@
         <v>30</v>
       </c>
       <c r="T76">
-        <f>DATEDIF(O76,P76,"D")</f>
+        <f t="shared" si="2"/>
         <v>21549</v>
       </c>
       <c r="U76">
-        <f>T76/365</f>
+        <f t="shared" si="3"/>
         <v>59.038356164383565</v>
       </c>
     </row>
@@ -10384,11 +10416,11 @@
         <v>30</v>
       </c>
       <c r="T77">
-        <f>DATEDIF(O77,P77,"D")</f>
+        <f t="shared" si="2"/>
         <v>11322</v>
       </c>
       <c r="U77">
-        <f>T77/365</f>
+        <f t="shared" si="3"/>
         <v>31.019178082191782</v>
       </c>
     </row>
@@ -10451,11 +10483,11 @@
         <v>30</v>
       </c>
       <c r="T78">
-        <f>DATEDIF(O78,P78,"D")</f>
+        <f t="shared" si="2"/>
         <v>2343</v>
       </c>
       <c r="U78">
-        <f>T78/365</f>
+        <f t="shared" si="3"/>
         <v>6.419178082191781</v>
       </c>
     </row>
@@ -10518,11 +10550,11 @@
         <v>30</v>
       </c>
       <c r="T79">
-        <f>DATEDIF(O79,P79,"D")</f>
+        <f t="shared" si="2"/>
         <v>3378</v>
       </c>
       <c r="U79">
-        <f>T79/365</f>
+        <f t="shared" si="3"/>
         <v>9.2547945205479447</v>
       </c>
     </row>
@@ -10585,11 +10617,11 @@
         <v>30</v>
       </c>
       <c r="T80">
-        <f>DATEDIF(O80,P80,"D")</f>
+        <f t="shared" si="2"/>
         <v>2312</v>
       </c>
       <c r="U80">
-        <f>T80/365</f>
+        <f t="shared" si="3"/>
         <v>6.3342465753424655</v>
       </c>
     </row>
@@ -10652,11 +10684,11 @@
         <v>30</v>
       </c>
       <c r="T81">
-        <f>DATEDIF(O81,P81,"D")</f>
+        <f t="shared" si="2"/>
         <v>152</v>
       </c>
       <c r="U81">
-        <f>T81/365</f>
+        <f t="shared" si="3"/>
         <v>0.41643835616438357</v>
       </c>
     </row>
@@ -10719,11 +10751,11 @@
         <v>30</v>
       </c>
       <c r="T82">
-        <f>DATEDIF(O82,P82,"D")</f>
+        <f t="shared" si="2"/>
         <v>25586</v>
       </c>
       <c r="U82">
-        <f>T82/365</f>
+        <f t="shared" si="3"/>
         <v>70.098630136986301</v>
       </c>
     </row>
@@ -10786,11 +10818,11 @@
         <v>30</v>
       </c>
       <c r="T83">
-        <f>DATEDIF(O83,P83,"D")</f>
+        <f t="shared" si="2"/>
         <v>9496</v>
       </c>
       <c r="U83">
-        <f>T83/365</f>
+        <f t="shared" si="3"/>
         <v>26.016438356164382</v>
       </c>
     </row>
@@ -10853,11 +10885,11 @@
         <v>30</v>
       </c>
       <c r="T84">
-        <f>DATEDIF(O84,P84,"D")</f>
+        <f t="shared" si="2"/>
         <v>6939</v>
       </c>
       <c r="U84">
-        <f>T84/365</f>
+        <f t="shared" si="3"/>
         <v>19.010958904109589</v>
       </c>
     </row>
@@ -10920,11 +10952,11 @@
         <v>30</v>
       </c>
       <c r="T85">
-        <f>DATEDIF(O85,P85,"D")</f>
+        <f t="shared" si="2"/>
         <v>6320</v>
       </c>
       <c r="U85">
-        <f>T85/365</f>
+        <f t="shared" si="3"/>
         <v>17.315068493150687</v>
       </c>
     </row>
@@ -10987,11 +11019,11 @@
         <v>30</v>
       </c>
       <c r="T86">
-        <f>DATEDIF(O86,P86,"D")</f>
+        <f t="shared" si="2"/>
         <v>1094</v>
       </c>
       <c r="U86">
-        <f>T86/365</f>
+        <f t="shared" si="3"/>
         <v>2.9972602739726026</v>
       </c>
     </row>
@@ -11054,11 +11086,11 @@
         <v>30</v>
       </c>
       <c r="T87">
-        <f>DATEDIF(O87,P87,"D")</f>
+        <f t="shared" si="2"/>
         <v>2434</v>
       </c>
       <c r="U87">
-        <f>T87/365</f>
+        <f t="shared" si="3"/>
         <v>6.6684931506849319</v>
       </c>
     </row>
@@ -11121,11 +11153,11 @@
         <v>30</v>
       </c>
       <c r="T88">
-        <f>DATEDIF(O88,P88,"D")</f>
+        <f t="shared" si="2"/>
         <v>2373</v>
       </c>
       <c r="U88">
-        <f>T88/365</f>
+        <f t="shared" si="3"/>
         <v>6.5013698630136982</v>
       </c>
     </row>
@@ -11188,11 +11220,11 @@
         <v>30</v>
       </c>
       <c r="T89">
-        <f>DATEDIF(O89,P89,"D")</f>
+        <f t="shared" si="2"/>
         <v>16983</v>
       </c>
       <c r="U89">
-        <f>T89/365</f>
+        <f t="shared" si="3"/>
         <v>46.528767123287672</v>
       </c>
     </row>
@@ -11255,11 +11287,11 @@
         <v>30</v>
       </c>
       <c r="T90">
-        <f>DATEDIF(O90,P90,"D")</f>
+        <f t="shared" si="2"/>
         <v>1733</v>
       </c>
       <c r="U90">
-        <f>T90/365</f>
+        <f t="shared" si="3"/>
         <v>4.7479452054794518</v>
       </c>
     </row>
@@ -11322,11 +11354,11 @@
         <v>30</v>
       </c>
       <c r="T91">
-        <f>DATEDIF(O91,P91,"D")</f>
+        <f t="shared" si="2"/>
         <v>2921</v>
       </c>
       <c r="U91">
-        <f>T91/365</f>
+        <f t="shared" si="3"/>
         <v>8.0027397260273965</v>
       </c>
     </row>
@@ -11389,11 +11421,11 @@
         <v>30</v>
       </c>
       <c r="T92">
-        <f>DATEDIF(O92,P92,"D")</f>
+        <f t="shared" si="2"/>
         <v>18474</v>
       </c>
       <c r="U92">
-        <f>T92/365</f>
+        <f t="shared" si="3"/>
         <v>50.613698630136987</v>
       </c>
     </row>
@@ -11456,11 +11488,11 @@
         <v>30</v>
       </c>
       <c r="T93">
-        <f>DATEDIF(O93,P93,"D")</f>
+        <f t="shared" si="2"/>
         <v>10226</v>
       </c>
       <c r="U93">
-        <f>T93/365</f>
+        <f t="shared" si="3"/>
         <v>28.016438356164382</v>
       </c>
     </row>
@@ -11523,11 +11555,11 @@
         <v>30</v>
       </c>
       <c r="T94">
-        <f>DATEDIF(O94,P94,"D")</f>
+        <f t="shared" si="2"/>
         <v>1582</v>
       </c>
       <c r="U94">
-        <f>T94/365</f>
+        <f t="shared" si="3"/>
         <v>4.3342465753424655</v>
       </c>
     </row>
@@ -11590,11 +11622,11 @@
         <v>30</v>
       </c>
       <c r="T95">
-        <f>DATEDIF(O95,P95,"D")</f>
+        <f t="shared" si="2"/>
         <v>26663</v>
       </c>
       <c r="U95">
-        <f>T95/365</f>
+        <f t="shared" si="3"/>
         <v>73.049315068493144</v>
       </c>
     </row>
@@ -11654,11 +11686,11 @@
         <v>30</v>
       </c>
       <c r="T96">
-        <f>DATEDIF(O96,P96,"D")</f>
+        <f t="shared" si="2"/>
         <v>2190</v>
       </c>
       <c r="U96">
-        <f>T96/365</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
@@ -11721,11 +11753,11 @@
         <v>30</v>
       </c>
       <c r="T97">
-        <f>DATEDIF(O97,P97,"D")</f>
+        <f t="shared" si="2"/>
         <v>23394</v>
       </c>
       <c r="U97">
-        <f>T97/365</f>
+        <f t="shared" si="3"/>
         <v>64.093150684931501</v>
       </c>
     </row>
@@ -11785,11 +11817,11 @@
         <v>30</v>
       </c>
       <c r="T98">
-        <f>DATEDIF(O98,P98,"D")</f>
+        <f t="shared" si="2"/>
         <v>15340</v>
       </c>
       <c r="U98">
-        <f>T98/365</f>
+        <f t="shared" si="3"/>
         <v>42.027397260273972</v>
       </c>
     </row>
@@ -11849,11 +11881,11 @@
         <v>30</v>
       </c>
       <c r="T99">
-        <f>DATEDIF(O99,P99,"D")</f>
+        <f t="shared" si="2"/>
         <v>2190</v>
       </c>
       <c r="U99">
-        <f>T99/365</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
@@ -11913,11 +11945,11 @@
         <v>30</v>
       </c>
       <c r="T100">
-        <f>DATEDIF(O100,P100,"D")</f>
+        <f t="shared" si="2"/>
         <v>2556</v>
       </c>
       <c r="U100">
-        <f>T100/365</f>
+        <f t="shared" si="3"/>
         <v>7.0027397260273974</v>
       </c>
     </row>
@@ -11980,11 +12012,11 @@
         <v>30</v>
       </c>
       <c r="T101">
-        <f>DATEDIF(O101,P101,"D")</f>
+        <f t="shared" si="2"/>
         <v>29177</v>
       </c>
       <c r="U101">
-        <f>T101/365</f>
+        <f t="shared" si="3"/>
         <v>79.936986301369856</v>
       </c>
     </row>
@@ -12044,11 +12076,11 @@
         <v>30</v>
       </c>
       <c r="T102">
-        <f>DATEDIF(O102,P102,"D")</f>
+        <f t="shared" si="2"/>
         <v>5843</v>
       </c>
       <c r="U102">
-        <f>T102/365</f>
+        <f t="shared" si="3"/>
         <v>16.008219178082193</v>
       </c>
     </row>
@@ -12111,11 +12143,11 @@
         <v>30</v>
       </c>
       <c r="T103">
-        <f>DATEDIF(O103,P103,"D")</f>
+        <f t="shared" si="2"/>
         <v>9160</v>
       </c>
       <c r="U103">
-        <f>T103/365</f>
+        <f t="shared" si="3"/>
         <v>25.095890410958905</v>
       </c>
     </row>
@@ -12178,11 +12210,11 @@
         <v>30</v>
       </c>
       <c r="T104">
-        <f>DATEDIF(O104,P104,"D")</f>
+        <f t="shared" si="2"/>
         <v>5478</v>
       </c>
       <c r="U104">
-        <f>T104/365</f>
+        <f t="shared" si="3"/>
         <v>15.008219178082191</v>
       </c>
     </row>
@@ -12245,11 +12277,11 @@
         <v>30</v>
       </c>
       <c r="T105">
-        <f>DATEDIF(O105,P105,"D")</f>
+        <f t="shared" si="2"/>
         <v>4382</v>
       </c>
       <c r="U105">
-        <f>T105/365</f>
+        <f t="shared" si="3"/>
         <v>12.005479452054795</v>
       </c>
     </row>
@@ -12312,11 +12344,11 @@
         <v>30</v>
       </c>
       <c r="T106">
-        <f>DATEDIF(O106,P106,"D")</f>
+        <f t="shared" si="2"/>
         <v>1826</v>
       </c>
       <c r="U106">
-        <f>T106/365</f>
+        <f t="shared" si="3"/>
         <v>5.0027397260273974</v>
       </c>
     </row>
@@ -12379,11 +12411,11 @@
         <v>30</v>
       </c>
       <c r="T107">
-        <f>DATEDIF(O107,P107,"D")</f>
+        <f t="shared" si="2"/>
         <v>40196</v>
       </c>
       <c r="U107">
-        <f>T107/365</f>
+        <f t="shared" si="3"/>
         <v>110.12602739726027</v>
       </c>
     </row>
@@ -12443,11 +12475,11 @@
         <v>30</v>
       </c>
       <c r="T108">
-        <f>DATEDIF(O108,P108,"D")</f>
+        <f t="shared" si="2"/>
         <v>18853</v>
       </c>
       <c r="U108">
-        <f>T108/365</f>
+        <f t="shared" si="3"/>
         <v>51.652054794520545</v>
       </c>
     </row>
@@ -12510,11 +12542,11 @@
         <v>30</v>
       </c>
       <c r="T109">
-        <f>DATEDIF(O109,P109,"D")</f>
+        <f t="shared" si="2"/>
         <v>23760</v>
       </c>
       <c r="U109">
-        <f>T109/365</f>
+        <f t="shared" si="3"/>
         <v>65.095890410958901</v>
       </c>
     </row>
@@ -12574,11 +12606,11 @@
         <v>30</v>
       </c>
       <c r="T110">
-        <f>DATEDIF(O110,P110,"D")</f>
+        <f t="shared" si="2"/>
         <v>2191</v>
       </c>
       <c r="U110">
-        <f>T110/365</f>
+        <f t="shared" si="3"/>
         <v>6.0027397260273974</v>
       </c>
     </row>
@@ -12641,11 +12673,11 @@
         <v>30</v>
       </c>
       <c r="T111">
-        <f>DATEDIF(O111,P111,"D")</f>
+        <f t="shared" si="2"/>
         <v>2617</v>
       </c>
       <c r="U111">
-        <f>T111/365</f>
+        <f t="shared" si="3"/>
         <v>7.1698630136986301</v>
       </c>
     </row>
@@ -12708,11 +12740,11 @@
         <v>30</v>
       </c>
       <c r="T112">
-        <f>DATEDIF(O112,P112,"D")</f>
+        <f t="shared" si="2"/>
         <v>2343</v>
       </c>
       <c r="U112">
-        <f>T112/365</f>
+        <f t="shared" si="3"/>
         <v>6.419178082191781</v>
       </c>
     </row>
@@ -12775,11 +12807,11 @@
         <v>30</v>
       </c>
       <c r="T113">
-        <f>DATEDIF(O113,P113,"D")</f>
+        <f t="shared" si="2"/>
         <v>3469</v>
       </c>
       <c r="U113">
-        <f>T113/365</f>
+        <f t="shared" si="3"/>
         <v>9.5041095890410965</v>
       </c>
     </row>
@@ -12842,11 +12874,11 @@
         <v>30</v>
       </c>
       <c r="T114">
-        <f>DATEDIF(O114,P114,"D")</f>
+        <f t="shared" si="2"/>
         <v>3286</v>
       </c>
       <c r="U114">
-        <f>T114/365</f>
+        <f t="shared" si="3"/>
         <v>9.0027397260273965</v>
       </c>
     </row>
@@ -12909,11 +12941,11 @@
         <v>30</v>
       </c>
       <c r="T115">
-        <f>DATEDIF(O115,P115,"D")</f>
+        <f t="shared" si="2"/>
         <v>1825</v>
       </c>
       <c r="U115">
-        <f>T115/365</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -12976,11 +13008,11 @@
         <v>30</v>
       </c>
       <c r="T116">
-        <f>DATEDIF(O116,P116,"D")</f>
+        <f t="shared" si="2"/>
         <v>14263</v>
       </c>
       <c r="U116">
-        <f>T116/365</f>
+        <f t="shared" si="3"/>
         <v>39.076712328767123</v>
       </c>
     </row>
@@ -13043,11 +13075,11 @@
         <v>30</v>
       </c>
       <c r="T117">
-        <f>DATEDIF(O117,P117,"D")</f>
+        <f t="shared" si="2"/>
         <v>1095</v>
       </c>
       <c r="U117">
-        <f>T117/365</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
@@ -13110,11 +13142,11 @@
         <v>30</v>
       </c>
       <c r="T118">
-        <f>DATEDIF(O118,P118,"D")</f>
+        <f t="shared" si="2"/>
         <v>26316</v>
       </c>
       <c r="U118">
-        <f>T118/365</f>
+        <f t="shared" si="3"/>
         <v>72.098630136986301</v>
       </c>
     </row>
@@ -13177,11 +13209,11 @@
         <v>30</v>
       </c>
       <c r="T119">
-        <f>DATEDIF(O119,P119,"D")</f>
+        <f t="shared" si="2"/>
         <v>23029</v>
       </c>
       <c r="U119">
-        <f>T119/365</f>
+        <f t="shared" si="3"/>
         <v>63.093150684931508</v>
       </c>
     </row>
@@ -13244,11 +13276,11 @@
         <v>30</v>
       </c>
       <c r="T120">
-        <f>DATEDIF(O120,P120,"D")</f>
+        <f t="shared" si="2"/>
         <v>24125</v>
       </c>
       <c r="U120">
-        <f>T120/365</f>
+        <f t="shared" si="3"/>
         <v>66.095890410958901</v>
       </c>
     </row>
@@ -13311,11 +13343,11 @@
         <v>30</v>
       </c>
       <c r="T121">
-        <f>DATEDIF(O121,P121,"D")</f>
+        <f t="shared" si="2"/>
         <v>28508</v>
       </c>
       <c r="U121">
-        <f>T121/365</f>
+        <f t="shared" si="3"/>
         <v>78.104109589041101</v>
       </c>
     </row>
@@ -13375,11 +13407,11 @@
         <v>30</v>
       </c>
       <c r="T122">
-        <f>DATEDIF(O122,P122,"D")</f>
+        <f t="shared" si="2"/>
         <v>5113</v>
       </c>
       <c r="U122">
-        <f>T122/365</f>
+        <f t="shared" si="3"/>
         <v>14.008219178082191</v>
       </c>
     </row>
@@ -13439,11 +13471,11 @@
         <v>30</v>
       </c>
       <c r="T123">
-        <f>DATEDIF(O123,P123,"D")</f>
+        <f t="shared" si="2"/>
         <v>19723</v>
       </c>
       <c r="U123">
-        <f>T123/365</f>
+        <f t="shared" si="3"/>
         <v>54.035616438356165</v>
       </c>
     </row>
@@ -13503,11 +13535,11 @@
         <v>30</v>
       </c>
       <c r="T124">
-        <f>DATEDIF(O124,P124,"D")</f>
+        <f t="shared" si="2"/>
         <v>3652</v>
       </c>
       <c r="U124">
-        <f>T124/365</f>
+        <f t="shared" si="3"/>
         <v>10.005479452054795</v>
       </c>
     </row>
@@ -13570,11 +13602,11 @@
         <v>30</v>
       </c>
       <c r="T125">
-        <f>DATEDIF(O125,P125,"D")</f>
+        <f t="shared" si="2"/>
         <v>2921</v>
       </c>
       <c r="U125">
-        <f>T125/365</f>
+        <f t="shared" si="3"/>
         <v>8.0027397260273965</v>
       </c>
     </row>
@@ -13637,11 +13669,11 @@
         <v>30</v>
       </c>
       <c r="T126">
-        <f>DATEDIF(O126,P126,"D")</f>
+        <f t="shared" si="2"/>
         <v>16455</v>
       </c>
       <c r="U126">
-        <f>T126/365</f>
+        <f t="shared" si="3"/>
         <v>45.082191780821915</v>
       </c>
     </row>
@@ -13704,11 +13736,11 @@
         <v>30</v>
       </c>
       <c r="T127">
-        <f>DATEDIF(O127,P127,"D")</f>
+        <f t="shared" si="2"/>
         <v>4382</v>
       </c>
       <c r="U127">
-        <f>T127/365</f>
+        <f t="shared" si="3"/>
         <v>12.005479452054795</v>
       </c>
     </row>
@@ -13771,11 +13803,11 @@
         <v>30</v>
       </c>
       <c r="T128">
-        <f>DATEDIF(O128,P128,"D")</f>
+        <f t="shared" si="2"/>
         <v>4382</v>
       </c>
       <c r="U128">
-        <f>T128/365</f>
+        <f t="shared" si="3"/>
         <v>12.005479452054795</v>
       </c>
     </row>
@@ -13838,11 +13870,11 @@
         <v>30</v>
       </c>
       <c r="T129">
-        <f>DATEDIF(O129,P129,"D")</f>
+        <f t="shared" si="2"/>
         <v>6209</v>
       </c>
       <c r="U129">
-        <f>T129/365</f>
+        <f t="shared" si="3"/>
         <v>17.010958904109589</v>
       </c>
     </row>
@@ -13905,11 +13937,11 @@
         <v>30</v>
       </c>
       <c r="T130">
-        <f>DATEDIF(O130,P130,"D")</f>
+        <f t="shared" si="2"/>
         <v>2313</v>
       </c>
       <c r="U130">
-        <f>T130/365</f>
+        <f t="shared" si="3"/>
         <v>6.3369863013698629</v>
       </c>
     </row>
@@ -13972,11 +14004,11 @@
         <v>30</v>
       </c>
       <c r="T131">
-        <f>DATEDIF(O131,P131,"D")</f>
+        <f t="shared" si="2"/>
         <v>1826</v>
       </c>
       <c r="U131">
-        <f>T131/365</f>
+        <f t="shared" si="3"/>
         <v>5.0027397260273974</v>
       </c>
     </row>
@@ -14039,11 +14071,11 @@
         <v>30</v>
       </c>
       <c r="T132">
-        <f>DATEDIF(O132,P132,"D")</f>
+        <f t="shared" ref="T132:T195" si="4">DATEDIF(O132,P132,"D")</f>
         <v>6574</v>
       </c>
       <c r="U132">
-        <f>T132/365</f>
+        <f t="shared" ref="U132:U195" si="5">T132/365</f>
         <v>18.010958904109589</v>
       </c>
     </row>
@@ -14106,11 +14138,11 @@
         <v>30</v>
       </c>
       <c r="T133">
-        <f>DATEDIF(O133,P133,"D")</f>
+        <f t="shared" si="4"/>
         <v>41840</v>
       </c>
       <c r="U133">
-        <f>T133/365</f>
+        <f t="shared" si="5"/>
         <v>114.63013698630137</v>
       </c>
     </row>
@@ -14173,11 +14205,11 @@
         <v>30</v>
       </c>
       <c r="T134">
-        <f>DATEDIF(O134,P134,"D")</f>
+        <f t="shared" si="4"/>
         <v>6422</v>
       </c>
       <c r="U134">
-        <f>T134/365</f>
+        <f t="shared" si="5"/>
         <v>17.594520547945205</v>
       </c>
     </row>
@@ -14237,11 +14269,11 @@
         <v>30</v>
       </c>
       <c r="T135">
-        <f>DATEDIF(O135,P135,"D")</f>
+        <f t="shared" si="4"/>
         <v>11687</v>
       </c>
       <c r="U135">
-        <f>T135/365</f>
+        <f t="shared" si="5"/>
         <v>32.019178082191779</v>
       </c>
     </row>
@@ -14301,11 +14333,11 @@
         <v>30</v>
       </c>
       <c r="T136">
-        <f>DATEDIF(O136,P136,"D")</f>
+        <f t="shared" si="4"/>
         <v>2191</v>
       </c>
       <c r="U136">
-        <f>T136/365</f>
+        <f t="shared" si="5"/>
         <v>6.0027397260273974</v>
       </c>
     </row>
@@ -14365,11 +14397,11 @@
         <v>30</v>
       </c>
       <c r="T137">
-        <f>DATEDIF(O137,P137,"D")</f>
+        <f t="shared" si="4"/>
         <v>3286</v>
       </c>
       <c r="U137">
-        <f>T137/365</f>
+        <f t="shared" si="5"/>
         <v>9.0027397260273965</v>
       </c>
     </row>
@@ -14432,11 +14464,11 @@
         <v>30</v>
       </c>
       <c r="T138">
-        <f>DATEDIF(O138,P138,"D")</f>
+        <f t="shared" si="4"/>
         <v>2555</v>
       </c>
       <c r="U138">
-        <f>T138/365</f>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
     </row>
@@ -14496,11 +14528,11 @@
         <v>30</v>
       </c>
       <c r="T139">
-        <f>DATEDIF(O139,P139,"D")</f>
+        <f t="shared" si="4"/>
         <v>2921</v>
       </c>
       <c r="U139">
-        <f>T139/365</f>
+        <f t="shared" si="5"/>
         <v>8.0027397260273965</v>
       </c>
     </row>
@@ -14563,11 +14595,11 @@
         <v>30</v>
       </c>
       <c r="T140">
-        <f>DATEDIF(O140,P140,"D")</f>
+        <f t="shared" si="4"/>
         <v>7669</v>
       </c>
       <c r="U140">
-        <f>T140/365</f>
+        <f t="shared" si="5"/>
         <v>21.010958904109589</v>
       </c>
     </row>
@@ -14630,11 +14662,11 @@
         <v>30</v>
       </c>
       <c r="T141">
-        <f>DATEDIF(O141,P141,"D")</f>
+        <f t="shared" si="4"/>
         <v>3744</v>
       </c>
       <c r="U141">
-        <f>T141/365</f>
+        <f t="shared" si="5"/>
         <v>10.257534246575343</v>
       </c>
     </row>
@@ -14697,11 +14729,11 @@
         <v>30</v>
       </c>
       <c r="T142">
-        <f>DATEDIF(O142,P142,"D")</f>
+        <f t="shared" si="4"/>
         <v>2343</v>
       </c>
       <c r="U142">
-        <f>T142/365</f>
+        <f t="shared" si="5"/>
         <v>6.419178082191781</v>
       </c>
     </row>
@@ -14764,11 +14796,11 @@
         <v>30</v>
       </c>
       <c r="T143">
-        <f>DATEDIF(O143,P143,"D")</f>
+        <f t="shared" si="4"/>
         <v>3347</v>
       </c>
       <c r="U143">
-        <f>T143/365</f>
+        <f t="shared" si="5"/>
         <v>9.169863013698631</v>
       </c>
     </row>
@@ -14831,11 +14863,11 @@
         <v>30</v>
       </c>
       <c r="T144">
-        <f>DATEDIF(O144,P144,"D")</f>
+        <f t="shared" si="4"/>
         <v>121</v>
       </c>
       <c r="U144">
-        <f>T144/365</f>
+        <f t="shared" si="5"/>
         <v>0.33150684931506852</v>
       </c>
     </row>
@@ -14898,11 +14930,11 @@
         <v>30</v>
       </c>
       <c r="T145">
-        <f>DATEDIF(O145,P145,"D")</f>
+        <f t="shared" si="4"/>
         <v>2921</v>
       </c>
       <c r="U145">
-        <f>T145/365</f>
+        <f t="shared" si="5"/>
         <v>8.0027397260273965</v>
       </c>
     </row>
@@ -14965,11 +14997,11 @@
         <v>30</v>
       </c>
       <c r="T146">
-        <f>DATEDIF(O146,P146,"D")</f>
+        <f t="shared" si="4"/>
         <v>3287</v>
       </c>
       <c r="U146">
-        <f>T146/365</f>
+        <f t="shared" si="5"/>
         <v>9.0054794520547947</v>
       </c>
     </row>
@@ -15032,11 +15064,11 @@
         <v>30</v>
       </c>
       <c r="T147">
-        <f>DATEDIF(O147,P147,"D")</f>
+        <f t="shared" si="4"/>
         <v>7122</v>
       </c>
       <c r="U147">
-        <f>T147/365</f>
+        <f t="shared" si="5"/>
         <v>19.512328767123286</v>
       </c>
     </row>
@@ -15099,11 +15131,11 @@
         <v>30</v>
       </c>
       <c r="T148">
-        <f>DATEDIF(O148,P148,"D")</f>
+        <f t="shared" si="4"/>
         <v>1094</v>
       </c>
       <c r="U148">
-        <f>T148/365</f>
+        <f t="shared" si="5"/>
         <v>2.9972602739726026</v>
       </c>
     </row>
@@ -15163,11 +15195,11 @@
         <v>30</v>
       </c>
       <c r="T149">
-        <f>DATEDIF(O149,P149,"D")</f>
+        <f t="shared" si="4"/>
         <v>20106</v>
       </c>
       <c r="U149">
-        <f>T149/365</f>
+        <f t="shared" si="5"/>
         <v>55.084931506849315</v>
       </c>
     </row>
@@ -15230,11 +15262,11 @@
         <v>30</v>
       </c>
       <c r="T150">
-        <f>DATEDIF(O150,P150,"D")</f>
+        <f t="shared" si="4"/>
         <v>22644</v>
       </c>
       <c r="U150">
-        <f>T150/365</f>
+        <f t="shared" si="5"/>
         <v>62.038356164383565</v>
       </c>
     </row>
@@ -15297,11 +15329,11 @@
         <v>30</v>
       </c>
       <c r="T151">
-        <f>DATEDIF(O151,P151,"D")</f>
+        <f t="shared" si="4"/>
         <v>4747</v>
       </c>
       <c r="U151">
-        <f>T151/365</f>
+        <f t="shared" si="5"/>
         <v>13.005479452054795</v>
       </c>
     </row>
@@ -15364,11 +15396,11 @@
         <v>30</v>
       </c>
       <c r="T152">
-        <f>DATEDIF(O152,P152,"D")</f>
+        <f t="shared" si="4"/>
         <v>3286</v>
       </c>
       <c r="U152">
-        <f>T152/365</f>
+        <f t="shared" si="5"/>
         <v>9.0027397260273965</v>
       </c>
     </row>
@@ -15431,11 +15463,11 @@
         <v>30</v>
       </c>
       <c r="T153">
-        <f>DATEDIF(O153,P153,"D")</f>
+        <f t="shared" si="4"/>
         <v>2555</v>
       </c>
       <c r="U153">
-        <f>T153/365</f>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
     </row>
@@ -15498,11 +15530,11 @@
         <v>30</v>
       </c>
       <c r="T154">
-        <f>DATEDIF(O154,P154,"D")</f>
+        <f t="shared" si="4"/>
         <v>14609</v>
       </c>
       <c r="U154">
-        <f>T154/365</f>
+        <f t="shared" si="5"/>
         <v>40.024657534246572</v>
       </c>
     </row>
@@ -15565,11 +15597,11 @@
         <v>30</v>
       </c>
       <c r="T155">
-        <f>DATEDIF(O155,P155,"D")</f>
+        <f t="shared" si="4"/>
         <v>26682</v>
       </c>
       <c r="U155">
-        <f>T155/365</f>
+        <f t="shared" si="5"/>
         <v>73.101369863013701</v>
       </c>
     </row>
@@ -15632,11 +15664,11 @@
         <v>30</v>
       </c>
       <c r="T156">
-        <f>DATEDIF(O156,P156,"D")</f>
+        <f t="shared" si="4"/>
         <v>16973</v>
       </c>
       <c r="U156">
-        <f>T156/365</f>
+        <f t="shared" si="5"/>
         <v>46.5013698630137</v>
       </c>
     </row>
@@ -15699,11 +15731,11 @@
         <v>30</v>
       </c>
       <c r="T157">
-        <f>DATEDIF(O157,P157,"D")</f>
+        <f t="shared" si="4"/>
         <v>2921</v>
       </c>
       <c r="U157">
-        <f>T157/365</f>
+        <f t="shared" si="5"/>
         <v>8.0027397260273965</v>
       </c>
     </row>
@@ -15766,11 +15798,11 @@
         <v>30</v>
       </c>
       <c r="T158">
-        <f>DATEDIF(O158,P158,"D")</f>
+        <f t="shared" si="4"/>
         <v>2921</v>
       </c>
       <c r="U158">
-        <f>T158/365</f>
+        <f t="shared" si="5"/>
         <v>8.0027397260273965</v>
       </c>
     </row>
@@ -15830,11 +15862,11 @@
         <v>30</v>
       </c>
       <c r="T159">
-        <f>DATEDIF(O159,P159,"D")</f>
+        <f t="shared" si="4"/>
         <v>3651</v>
       </c>
       <c r="U159">
-        <f>T159/365</f>
+        <f t="shared" si="5"/>
         <v>10.002739726027396</v>
       </c>
     </row>
@@ -15897,11 +15929,11 @@
         <v>30</v>
       </c>
       <c r="T160">
-        <f>DATEDIF(O160,P160,"D")</f>
+        <f t="shared" si="4"/>
         <v>20838</v>
       </c>
       <c r="U160">
-        <f>T160/365</f>
+        <f t="shared" si="5"/>
         <v>57.090410958904108</v>
       </c>
     </row>
@@ -15964,11 +15996,11 @@
         <v>30</v>
       </c>
       <c r="T161">
-        <f>DATEDIF(O161,P161,"D")</f>
+        <f t="shared" si="4"/>
         <v>16455</v>
       </c>
       <c r="U161">
-        <f>T161/365</f>
+        <f t="shared" si="5"/>
         <v>45.082191780821915</v>
       </c>
     </row>
@@ -16031,11 +16063,11 @@
         <v>30</v>
       </c>
       <c r="T162">
-        <f>DATEDIF(O162,P162,"D")</f>
+        <f t="shared" si="4"/>
         <v>19742</v>
       </c>
       <c r="U162">
-        <f>T162/365</f>
+        <f t="shared" si="5"/>
         <v>54.087671232876716</v>
       </c>
     </row>
@@ -16095,11 +16127,11 @@
         <v>30</v>
       </c>
       <c r="T163">
-        <f>DATEDIF(O163,P163,"D")</f>
+        <f t="shared" si="4"/>
         <v>4961</v>
       </c>
       <c r="U163">
-        <f>T163/365</f>
+        <f t="shared" si="5"/>
         <v>13.591780821917808</v>
       </c>
     </row>
@@ -16159,11 +16191,11 @@
         <v>30</v>
       </c>
       <c r="T164">
-        <f>DATEDIF(O164,P164,"D")</f>
+        <f t="shared" si="4"/>
         <v>10226</v>
       </c>
       <c r="U164">
-        <f>T164/365</f>
+        <f t="shared" si="5"/>
         <v>28.016438356164382</v>
       </c>
     </row>
@@ -16223,11 +16255,11 @@
         <v>30</v>
       </c>
       <c r="T165">
-        <f>DATEDIF(O165,P165,"D")</f>
+        <f t="shared" si="4"/>
         <v>1825</v>
       </c>
       <c r="U165">
-        <f>T165/365</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
     </row>
@@ -16290,11 +16322,11 @@
         <v>30</v>
       </c>
       <c r="T166">
-        <f>DATEDIF(O166,P166,"D")</f>
+        <f t="shared" si="4"/>
         <v>2556</v>
       </c>
       <c r="U166">
-        <f>T166/365</f>
+        <f t="shared" si="5"/>
         <v>7.0027397260273974</v>
       </c>
     </row>
@@ -16357,11 +16389,11 @@
         <v>30</v>
       </c>
       <c r="T167">
-        <f>DATEDIF(O167,P167,"D")</f>
+        <f t="shared" si="4"/>
         <v>3469</v>
       </c>
       <c r="U167">
-        <f>T167/365</f>
+        <f t="shared" si="5"/>
         <v>9.5041095890410965</v>
       </c>
     </row>
@@ -16424,11 +16456,11 @@
         <v>30</v>
       </c>
       <c r="T168">
-        <f>DATEDIF(O168,P168,"D")</f>
+        <f t="shared" si="4"/>
         <v>9131</v>
       </c>
       <c r="U168">
-        <f>T168/365</f>
+        <f t="shared" si="5"/>
         <v>25.016438356164382</v>
       </c>
     </row>
@@ -16491,11 +16523,11 @@
         <v>30</v>
       </c>
       <c r="T169">
-        <f>DATEDIF(O169,P169,"D")</f>
+        <f t="shared" si="4"/>
         <v>24612</v>
       </c>
       <c r="U169">
-        <f>T169/365</f>
+        <f t="shared" si="5"/>
         <v>67.430136986301363</v>
       </c>
     </row>
@@ -16558,11 +16590,11 @@
         <v>30</v>
       </c>
       <c r="T170">
-        <f>DATEDIF(O170,P170,"D")</f>
+        <f t="shared" si="4"/>
         <v>13533</v>
       </c>
       <c r="U170">
-        <f>T170/365</f>
+        <f t="shared" si="5"/>
         <v>37.076712328767123</v>
       </c>
     </row>
@@ -16625,11 +16657,11 @@
         <v>30</v>
       </c>
       <c r="T171">
-        <f>DATEDIF(O171,P171,"D")</f>
+        <f t="shared" si="4"/>
         <v>729</v>
       </c>
       <c r="U171">
-        <f>T171/365</f>
+        <f t="shared" si="5"/>
         <v>1.9972602739726026</v>
       </c>
     </row>
@@ -16692,11 +16724,11 @@
         <v>30</v>
       </c>
       <c r="T172">
-        <f>DATEDIF(O172,P172,"D")</f>
+        <f t="shared" si="4"/>
         <v>1825</v>
       </c>
       <c r="U172">
-        <f>T172/365</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
     </row>
@@ -16759,11 +16791,11 @@
         <v>30</v>
       </c>
       <c r="T173">
-        <f>DATEDIF(O173,P173,"D")</f>
+        <f t="shared" si="4"/>
         <v>18474</v>
       </c>
       <c r="U173">
-        <f>T173/365</f>
+        <f t="shared" si="5"/>
         <v>50.613698630136987</v>
       </c>
     </row>
@@ -16826,11 +16858,11 @@
         <v>30</v>
       </c>
       <c r="T174">
-        <f>DATEDIF(O174,P174,"D")</f>
+        <f t="shared" si="4"/>
         <v>22207</v>
       </c>
       <c r="U174">
-        <f>T174/365</f>
+        <f t="shared" si="5"/>
         <v>60.841095890410962</v>
       </c>
     </row>
@@ -16893,11 +16925,11 @@
         <v>30</v>
       </c>
       <c r="T175">
-        <f>DATEDIF(O175,P175,"D")</f>
+        <f t="shared" si="4"/>
         <v>3286</v>
       </c>
       <c r="U175">
-        <f>T175/365</f>
+        <f t="shared" si="5"/>
         <v>9.0027397260273965</v>
       </c>
     </row>
@@ -16960,11 +16992,11 @@
         <v>30</v>
       </c>
       <c r="T176">
-        <f>DATEDIF(O176,P176,"D")</f>
+        <f t="shared" si="4"/>
         <v>16070</v>
       </c>
       <c r="U176">
-        <f>T176/365</f>
+        <f t="shared" si="5"/>
         <v>44.027397260273972</v>
       </c>
     </row>
@@ -17027,11 +17059,11 @@
         <v>30</v>
       </c>
       <c r="T177">
-        <f>DATEDIF(O177,P177,"D")</f>
+        <f t="shared" si="4"/>
         <v>3316</v>
       </c>
       <c r="U177">
-        <f>T177/365</f>
+        <f t="shared" si="5"/>
         <v>9.0849315068493155</v>
       </c>
     </row>
@@ -17094,11 +17126,11 @@
         <v>30</v>
       </c>
       <c r="T178">
-        <f>DATEDIF(O178,P178,"D")</f>
+        <f t="shared" si="4"/>
         <v>12053</v>
       </c>
       <c r="U178">
-        <f>T178/365</f>
+        <f t="shared" si="5"/>
         <v>33.021917808219179</v>
       </c>
     </row>
@@ -17158,11 +17190,11 @@
         <v>30</v>
       </c>
       <c r="T179">
-        <f>DATEDIF(O179,P179,"D")</f>
+        <f t="shared" si="4"/>
         <v>2556</v>
       </c>
       <c r="U179">
-        <f>T179/365</f>
+        <f t="shared" si="5"/>
         <v>7.0027397260273974</v>
       </c>
     </row>
@@ -17225,11 +17257,11 @@
         <v>30</v>
       </c>
       <c r="T180">
-        <f>DATEDIF(O180,P180,"D")</f>
+        <f t="shared" si="4"/>
         <v>14994</v>
       </c>
       <c r="U180">
-        <f>T180/365</f>
+        <f t="shared" si="5"/>
         <v>41.079452054794523</v>
       </c>
     </row>
@@ -17289,11 +17321,11 @@
         <v>30</v>
       </c>
       <c r="T181">
-        <f>DATEDIF(O181,P181,"D")</f>
+        <f t="shared" si="4"/>
         <v>14694</v>
       </c>
       <c r="U181">
-        <f>T181/365</f>
+        <f t="shared" si="5"/>
         <v>40.257534246575339</v>
       </c>
     </row>
@@ -17353,11 +17385,11 @@
         <v>30</v>
       </c>
       <c r="T182">
-        <f>DATEDIF(O182,P182,"D")</f>
+        <f t="shared" si="4"/>
         <v>3652</v>
       </c>
       <c r="U182">
-        <f>T182/365</f>
+        <f t="shared" si="5"/>
         <v>10.005479452054795</v>
       </c>
     </row>
@@ -17420,11 +17452,11 @@
         <v>30</v>
       </c>
       <c r="T183">
-        <f>DATEDIF(O183,P183,"D")</f>
+        <f t="shared" si="4"/>
         <v>882</v>
       </c>
       <c r="U183">
-        <f>T183/365</f>
+        <f t="shared" si="5"/>
         <v>2.4164383561643836</v>
       </c>
     </row>
@@ -17487,11 +17519,11 @@
         <v>30</v>
       </c>
       <c r="T184">
-        <f>DATEDIF(O184,P184,"D")</f>
+        <f t="shared" si="4"/>
         <v>20472</v>
       </c>
       <c r="U184">
-        <f>T184/365</f>
+        <f t="shared" si="5"/>
         <v>56.087671232876716</v>
       </c>
     </row>
@@ -17554,11 +17586,11 @@
         <v>30</v>
       </c>
       <c r="T185">
-        <f>DATEDIF(O185,P185,"D")</f>
+        <f t="shared" si="4"/>
         <v>23760</v>
       </c>
       <c r="U185">
-        <f>T185/365</f>
+        <f t="shared" si="5"/>
         <v>65.095890410958901</v>
       </c>
     </row>
@@ -17621,11 +17653,11 @@
         <v>30</v>
       </c>
       <c r="T186">
-        <f>DATEDIF(O186,P186,"D")</f>
+        <f t="shared" si="4"/>
         <v>5843</v>
       </c>
       <c r="U186">
-        <f>T186/365</f>
+        <f t="shared" si="5"/>
         <v>16.008219178082193</v>
       </c>
     </row>
@@ -17688,11 +17720,11 @@
         <v>30</v>
       </c>
       <c r="T187">
-        <f>DATEDIF(O187,P187,"D")</f>
+        <f t="shared" si="4"/>
         <v>2921</v>
       </c>
       <c r="U187">
-        <f>T187/365</f>
+        <f t="shared" si="5"/>
         <v>8.0027397260273965</v>
       </c>
     </row>
@@ -17752,11 +17784,11 @@
         <v>30</v>
       </c>
       <c r="T188">
-        <f>DATEDIF(O188,P188,"D")</f>
+        <f t="shared" si="4"/>
         <v>14062</v>
       </c>
       <c r="U188">
-        <f>T188/365</f>
+        <f t="shared" si="5"/>
         <v>38.526027397260272</v>
       </c>
     </row>
@@ -17819,11 +17851,11 @@
         <v>30</v>
       </c>
       <c r="T189">
-        <f>DATEDIF(O189,P189,"D")</f>
+        <f t="shared" si="4"/>
         <v>13878</v>
       </c>
       <c r="U189">
-        <f>T189/365</f>
+        <f t="shared" si="5"/>
         <v>38.021917808219179</v>
       </c>
     </row>
@@ -17886,11 +17918,11 @@
         <v>30</v>
       </c>
       <c r="T190">
-        <f>DATEDIF(O190,P190,"D")</f>
+        <f t="shared" si="4"/>
         <v>11600</v>
       </c>
       <c r="U190">
-        <f>T190/365</f>
+        <f t="shared" si="5"/>
         <v>31.780821917808218</v>
       </c>
     </row>
@@ -17953,11 +17985,11 @@
         <v>30</v>
       </c>
       <c r="T191">
-        <f>DATEDIF(O191,P191,"D")</f>
+        <f t="shared" si="4"/>
         <v>3074</v>
       </c>
       <c r="U191">
-        <f>T191/365</f>
+        <f t="shared" si="5"/>
         <v>8.4219178082191775</v>
       </c>
     </row>
@@ -18020,11 +18052,11 @@
         <v>30</v>
       </c>
       <c r="T192">
-        <f>DATEDIF(O192,P192,"D")</f>
+        <f t="shared" si="4"/>
         <v>1095</v>
       </c>
       <c r="U192">
-        <f>T192/365</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
     </row>
@@ -18087,11 +18119,11 @@
         <v>30</v>
       </c>
       <c r="T193">
-        <f>DATEDIF(O193,P193,"D")</f>
+        <f t="shared" si="4"/>
         <v>1825</v>
       </c>
       <c r="U193">
-        <f>T193/365</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
     </row>
@@ -18154,11 +18186,11 @@
         <v>30</v>
       </c>
       <c r="T194">
-        <f>DATEDIF(O194,P194,"D")</f>
+        <f t="shared" si="4"/>
         <v>41200</v>
       </c>
       <c r="U194">
-        <f>T194/365</f>
+        <f t="shared" si="5"/>
         <v>112.87671232876713</v>
       </c>
     </row>
@@ -18221,11 +18253,11 @@
         <v>30</v>
       </c>
       <c r="T195">
-        <f>DATEDIF(O195,P195,"D")</f>
+        <f t="shared" si="4"/>
         <v>24490</v>
       </c>
       <c r="U195">
-        <f>T195/365</f>
+        <f t="shared" si="5"/>
         <v>67.095890410958901</v>
       </c>
     </row>
@@ -18288,11 +18320,11 @@
         <v>30</v>
       </c>
       <c r="T196">
-        <f>DATEDIF(O196,P196,"D")</f>
+        <f t="shared" ref="T196:T258" si="6">DATEDIF(O196,P196,"D")</f>
         <v>19011</v>
       </c>
       <c r="U196">
-        <f>T196/365</f>
+        <f t="shared" ref="U196:U259" si="7">T196/365</f>
         <v>52.084931506849315</v>
       </c>
     </row>
@@ -18355,11 +18387,11 @@
         <v>30</v>
       </c>
       <c r="T197">
-        <f>DATEDIF(O197,P197,"D")</f>
+        <f t="shared" si="6"/>
         <v>9496</v>
       </c>
       <c r="U197">
-        <f>T197/365</f>
+        <f t="shared" si="7"/>
         <v>26.016438356164382</v>
       </c>
     </row>
@@ -18422,11 +18454,11 @@
         <v>30</v>
       </c>
       <c r="T198">
-        <f>DATEDIF(O198,P198,"D")</f>
+        <f t="shared" si="6"/>
         <v>31886</v>
       </c>
       <c r="U198">
-        <f>T198/365</f>
+        <f t="shared" si="7"/>
         <v>87.358904109589048</v>
       </c>
     </row>
@@ -18489,11 +18521,11 @@
         <v>30</v>
       </c>
       <c r="T199">
-        <f>DATEDIF(O199,P199,"D")</f>
+        <f t="shared" si="6"/>
         <v>1094</v>
       </c>
       <c r="U199">
-        <f>T199/365</f>
+        <f t="shared" si="7"/>
         <v>2.9972602739726026</v>
       </c>
     </row>
@@ -18556,11 +18588,11 @@
         <v>30</v>
       </c>
       <c r="T200">
-        <f>DATEDIF(O200,P200,"D")</f>
+        <f t="shared" si="6"/>
         <v>42387</v>
       </c>
       <c r="U200">
-        <f>T200/365</f>
+        <f t="shared" si="7"/>
         <v>116.12876712328767</v>
       </c>
     </row>
@@ -18623,11 +18655,11 @@
         <v>30</v>
       </c>
       <c r="T201">
-        <f>DATEDIF(O201,P201,"D")</f>
+        <f t="shared" si="6"/>
         <v>3651</v>
       </c>
       <c r="U201">
-        <f>T201/365</f>
+        <f t="shared" si="7"/>
         <v>10.002739726027396</v>
       </c>
     </row>
@@ -18690,11 +18722,11 @@
         <v>30</v>
       </c>
       <c r="T202">
-        <f>DATEDIF(O202,P202,"D")</f>
+        <f t="shared" si="6"/>
         <v>12437</v>
       </c>
       <c r="U202">
-        <f>T202/365</f>
+        <f t="shared" si="7"/>
         <v>34.073972602739723</v>
       </c>
     </row>
@@ -18757,11 +18789,11 @@
         <v>30</v>
       </c>
       <c r="T203">
-        <f>DATEDIF(O203,P203,"D")</f>
+        <f t="shared" si="6"/>
         <v>4382</v>
       </c>
       <c r="U203">
-        <f>T203/365</f>
+        <f t="shared" si="7"/>
         <v>12.005479452054795</v>
       </c>
     </row>
@@ -18824,11 +18856,11 @@
         <v>30</v>
       </c>
       <c r="T204">
-        <f>DATEDIF(O204,P204,"D")</f>
+        <f t="shared" si="6"/>
         <v>10226</v>
       </c>
       <c r="U204">
-        <f>T204/365</f>
+        <f t="shared" si="7"/>
         <v>28.016438356164382</v>
       </c>
     </row>
@@ -18891,11 +18923,11 @@
         <v>30</v>
       </c>
       <c r="T205">
-        <f>DATEDIF(O205,P205,"D")</f>
+        <f t="shared" si="6"/>
         <v>27899</v>
       </c>
       <c r="U205">
-        <f>T205/365</f>
+        <f t="shared" si="7"/>
         <v>76.435616438356163</v>
       </c>
     </row>
@@ -18955,11 +18987,11 @@
         <v>30</v>
       </c>
       <c r="T206">
-        <f>DATEDIF(O206,P206,"D")</f>
+        <f t="shared" si="6"/>
         <v>2191</v>
       </c>
       <c r="U206">
-        <f>T206/365</f>
+        <f t="shared" si="7"/>
         <v>6.0027397260273974</v>
       </c>
     </row>
@@ -19022,11 +19054,11 @@
         <v>30</v>
       </c>
       <c r="T207">
-        <f>DATEDIF(O207,P207,"D")</f>
+        <f t="shared" si="6"/>
         <v>40196</v>
       </c>
       <c r="U207">
-        <f>T207/365</f>
+        <f t="shared" si="7"/>
         <v>110.12602739726027</v>
       </c>
     </row>
@@ -19089,11 +19121,11 @@
         <v>30</v>
       </c>
       <c r="T208">
-        <f>DATEDIF(O208,P208,"D")</f>
+        <f t="shared" si="6"/>
         <v>16436</v>
       </c>
       <c r="U208">
-        <f>T208/365</f>
+        <f t="shared" si="7"/>
         <v>45.030136986301372</v>
       </c>
     </row>
@@ -19153,11 +19185,11 @@
         <v>30</v>
       </c>
       <c r="T209">
-        <f>DATEDIF(O209,P209,"D")</f>
+        <f t="shared" si="6"/>
         <v>4748</v>
       </c>
       <c r="U209">
-        <f>T209/365</f>
+        <f t="shared" si="7"/>
         <v>13.008219178082191</v>
       </c>
     </row>
@@ -19220,11 +19252,11 @@
         <v>30</v>
       </c>
       <c r="T210">
-        <f>DATEDIF(O210,P210,"D")</f>
+        <f t="shared" si="6"/>
         <v>14628</v>
       </c>
       <c r="U210">
-        <f>T210/365</f>
+        <f t="shared" si="7"/>
         <v>40.076712328767123</v>
       </c>
     </row>
@@ -19287,11 +19319,11 @@
         <v>30</v>
       </c>
       <c r="T211">
-        <f>DATEDIF(O211,P211,"D")</f>
+        <f t="shared" si="6"/>
         <v>1460</v>
       </c>
       <c r="U211">
-        <f>T211/365</f>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
     </row>
@@ -19354,11 +19386,11 @@
         <v>30</v>
       </c>
       <c r="T212">
-        <f>DATEDIF(O212,P212,"D")</f>
+        <f t="shared" si="6"/>
         <v>17550</v>
       </c>
       <c r="U212">
-        <f>T212/365</f>
+        <f t="shared" si="7"/>
         <v>48.082191780821915</v>
       </c>
     </row>
@@ -19421,11 +19453,11 @@
         <v>30</v>
       </c>
       <c r="T213">
-        <f>DATEDIF(O213,P213,"D")</f>
+        <f t="shared" si="6"/>
         <v>882</v>
       </c>
       <c r="U213">
-        <f>T213/365</f>
+        <f t="shared" si="7"/>
         <v>2.4164383561643836</v>
       </c>
     </row>
@@ -19488,11 +19520,11 @@
         <v>30</v>
       </c>
       <c r="T214">
-        <f>DATEDIF(O214,P214,"D")</f>
+        <f t="shared" si="6"/>
         <v>10226</v>
       </c>
       <c r="U214">
-        <f>T214/365</f>
+        <f t="shared" si="7"/>
         <v>28.016438356164382</v>
       </c>
     </row>
@@ -19555,11 +19587,11 @@
         <v>30</v>
       </c>
       <c r="T215">
-        <f>DATEDIF(O215,P215,"D")</f>
+        <f t="shared" si="6"/>
         <v>2737</v>
       </c>
       <c r="U215">
-        <f>T215/365</f>
+        <f t="shared" si="7"/>
         <v>7.4986301369863018</v>
       </c>
     </row>
@@ -19619,11 +19651,11 @@
         <v>30</v>
       </c>
       <c r="T216">
-        <f>DATEDIF(O216,P216,"D")</f>
+        <f t="shared" si="6"/>
         <v>2191</v>
       </c>
       <c r="U216">
-        <f>T216/365</f>
+        <f t="shared" si="7"/>
         <v>6.0027397260273974</v>
       </c>
     </row>
@@ -19686,11 +19718,11 @@
         <v>30</v>
       </c>
       <c r="T217">
-        <f>DATEDIF(O217,P217,"D")</f>
+        <f t="shared" si="6"/>
         <v>2402</v>
       </c>
       <c r="U217">
-        <f>T217/365</f>
+        <f t="shared" si="7"/>
         <v>6.580821917808219</v>
       </c>
     </row>
@@ -19753,11 +19785,11 @@
         <v>30</v>
       </c>
       <c r="T218">
-        <f>DATEDIF(O218,P218,"D")</f>
+        <f t="shared" si="6"/>
         <v>4504</v>
       </c>
       <c r="U218">
-        <f>T218/365</f>
+        <f t="shared" si="7"/>
         <v>12.33972602739726</v>
       </c>
     </row>
@@ -19820,11 +19852,11 @@
         <v>30</v>
       </c>
       <c r="T219">
-        <f>DATEDIF(O219,P219,"D")</f>
+        <f t="shared" si="6"/>
         <v>3834</v>
       </c>
       <c r="U219">
-        <f>T219/365</f>
+        <f t="shared" si="7"/>
         <v>10.504109589041096</v>
       </c>
     </row>
@@ -19887,11 +19919,11 @@
         <v>30</v>
       </c>
       <c r="T220">
-        <f>DATEDIF(O220,P220,"D")</f>
+        <f t="shared" si="6"/>
         <v>3712</v>
       </c>
       <c r="U220">
-        <f>T220/365</f>
+        <f t="shared" si="7"/>
         <v>10.169863013698631</v>
       </c>
     </row>
@@ -19954,11 +19986,11 @@
         <v>30</v>
       </c>
       <c r="T221">
-        <f>DATEDIF(O221,P221,"D")</f>
+        <f t="shared" si="6"/>
         <v>3834</v>
       </c>
       <c r="U221">
-        <f>T221/365</f>
+        <f t="shared" si="7"/>
         <v>10.504109589041096</v>
       </c>
     </row>
@@ -20021,11 +20053,11 @@
         <v>30</v>
       </c>
       <c r="T222">
-        <f>DATEDIF(O222,P222,"D")</f>
+        <f t="shared" si="6"/>
         <v>121</v>
       </c>
       <c r="U222">
-        <f>T222/365</f>
+        <f t="shared" si="7"/>
         <v>0.33150684931506852</v>
       </c>
     </row>
@@ -20088,11 +20120,11 @@
         <v>30</v>
       </c>
       <c r="T223">
-        <f>DATEDIF(O223,P223,"D")</f>
+        <f t="shared" si="6"/>
         <v>40196</v>
       </c>
       <c r="U223">
-        <f>T223/365</f>
+        <f t="shared" si="7"/>
         <v>110.12602739726027</v>
       </c>
     </row>
@@ -20155,11 +20187,11 @@
         <v>30</v>
       </c>
       <c r="T224">
-        <f>DATEDIF(O224,P224,"D")</f>
+        <f t="shared" si="6"/>
         <v>31430</v>
       </c>
       <c r="U224">
-        <f>T224/365</f>
+        <f t="shared" si="7"/>
         <v>86.109589041095887</v>
       </c>
     </row>
@@ -20222,11 +20254,11 @@
         <v>30</v>
       </c>
       <c r="T225">
-        <f>DATEDIF(O225,P225,"D")</f>
+        <f t="shared" si="6"/>
         <v>11159</v>
       </c>
       <c r="U225">
-        <f>T225/365</f>
+        <f t="shared" si="7"/>
         <v>30.572602739726026</v>
       </c>
     </row>
@@ -20289,11 +20321,11 @@
         <v>30</v>
       </c>
       <c r="T226">
-        <f>DATEDIF(O226,P226,"D")</f>
+        <f t="shared" si="6"/>
         <v>1733</v>
       </c>
       <c r="U226">
-        <f>T226/365</f>
+        <f t="shared" si="7"/>
         <v>4.7479452054794518</v>
       </c>
     </row>
@@ -20356,11 +20388,11 @@
         <v>30</v>
       </c>
       <c r="T227">
-        <f>DATEDIF(O227,P227,"D")</f>
+        <f t="shared" si="6"/>
         <v>18992</v>
       </c>
       <c r="U227">
-        <f>T227/365</f>
+        <f t="shared" si="7"/>
         <v>52.032876712328765</v>
       </c>
     </row>
@@ -20423,11 +20455,11 @@
         <v>30</v>
       </c>
       <c r="T228">
-        <f>DATEDIF(O228,P228,"D")</f>
+        <f t="shared" si="6"/>
         <v>11341</v>
       </c>
       <c r="U228">
-        <f>T228/365</f>
+        <f t="shared" si="7"/>
         <v>31.07123287671233</v>
       </c>
     </row>
@@ -20487,11 +20519,11 @@
         <v>30</v>
       </c>
       <c r="T229">
-        <f>DATEDIF(O229,P229,"D")</f>
+        <f t="shared" si="6"/>
         <v>2190</v>
       </c>
       <c r="U229">
-        <f>T229/365</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
     </row>
@@ -20551,11 +20583,11 @@
         <v>30</v>
       </c>
       <c r="T230">
-        <f>DATEDIF(O230,P230,"D")</f>
+        <f t="shared" si="6"/>
         <v>16436</v>
       </c>
       <c r="U230">
-        <f>T230/365</f>
+        <f t="shared" si="7"/>
         <v>45.030136986301372</v>
       </c>
     </row>
@@ -20615,11 +20647,11 @@
         <v>30</v>
       </c>
       <c r="T231">
-        <f>DATEDIF(O231,P231,"D")</f>
+        <f t="shared" si="6"/>
         <v>4382</v>
       </c>
       <c r="U231">
-        <f>T231/365</f>
+        <f t="shared" si="7"/>
         <v>12.005479452054795</v>
       </c>
     </row>
@@ -20679,11 +20711,11 @@
         <v>30</v>
       </c>
       <c r="T232">
-        <f>DATEDIF(O232,P232,"D")</f>
+        <f t="shared" si="6"/>
         <v>8035</v>
       </c>
       <c r="U232">
-        <f>T232/365</f>
+        <f t="shared" si="7"/>
         <v>22.013698630136986</v>
       </c>
     </row>
@@ -20746,11 +20778,11 @@
         <v>30</v>
       </c>
       <c r="T233">
-        <f>DATEDIF(O233,P233,"D")</f>
+        <f t="shared" si="6"/>
         <v>8035</v>
       </c>
       <c r="U233">
-        <f>T233/365</f>
+        <f t="shared" si="7"/>
         <v>22.013698630136986</v>
       </c>
     </row>
@@ -20813,11 +20845,11 @@
         <v>30</v>
       </c>
       <c r="T234">
-        <f>DATEDIF(O234,P234,"D")</f>
+        <f t="shared" si="6"/>
         <v>9160</v>
       </c>
       <c r="U234">
-        <f>T234/365</f>
+        <f t="shared" si="7"/>
         <v>25.095890410958905</v>
       </c>
     </row>
@@ -20880,11 +20912,11 @@
         <v>30</v>
       </c>
       <c r="T235">
-        <f>DATEDIF(O235,P235,"D")</f>
+        <f t="shared" si="6"/>
         <v>4382</v>
       </c>
       <c r="U235">
-        <f>T235/365</f>
+        <f t="shared" si="7"/>
         <v>12.005479452054795</v>
       </c>
     </row>
@@ -20947,11 +20979,11 @@
         <v>30</v>
       </c>
       <c r="T236">
-        <f>DATEDIF(O236,P236,"D")</f>
+        <f t="shared" si="6"/>
         <v>1460</v>
       </c>
       <c r="U236">
-        <f>T236/365</f>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
     </row>
@@ -21014,11 +21046,11 @@
         <v>30</v>
       </c>
       <c r="T237">
-        <f>DATEDIF(O237,P237,"D")</f>
+        <f t="shared" si="6"/>
         <v>2191</v>
       </c>
       <c r="U237">
-        <f>T237/365</f>
+        <f t="shared" si="7"/>
         <v>6.0027397260273974</v>
       </c>
     </row>
@@ -21081,11 +21113,11 @@
         <v>30</v>
       </c>
       <c r="T238">
-        <f>DATEDIF(O238,P238,"D")</f>
+        <f t="shared" si="6"/>
         <v>1582</v>
       </c>
       <c r="U238">
-        <f>T238/365</f>
+        <f t="shared" si="7"/>
         <v>4.3342465753424655</v>
       </c>
     </row>
@@ -21148,11 +21180,11 @@
         <v>30</v>
       </c>
       <c r="T239">
-        <f>DATEDIF(O239,P239,"D")</f>
+        <f t="shared" si="6"/>
         <v>1826</v>
       </c>
       <c r="U239">
-        <f>T239/365</f>
+        <f t="shared" si="7"/>
         <v>5.0027397260273974</v>
       </c>
     </row>
@@ -21215,11 +21247,11 @@
         <v>30</v>
       </c>
       <c r="T240">
-        <f>DATEDIF(O240,P240,"D")</f>
+        <f t="shared" si="6"/>
         <v>8035</v>
       </c>
       <c r="U240">
-        <f>T240/365</f>
+        <f t="shared" si="7"/>
         <v>22.013698630136986</v>
       </c>
     </row>
@@ -21279,11 +21311,11 @@
         <v>30</v>
       </c>
       <c r="T241">
-        <f>DATEDIF(O241,P241,"D")</f>
+        <f t="shared" si="6"/>
         <v>10956</v>
       </c>
       <c r="U241">
-        <f>T241/365</f>
+        <f t="shared" si="7"/>
         <v>30.016438356164382</v>
       </c>
     </row>
@@ -21346,11 +21378,11 @@
         <v>30</v>
       </c>
       <c r="T242">
-        <f>DATEDIF(O242,P242,"D")</f>
+        <f t="shared" si="6"/>
         <v>4655</v>
       </c>
       <c r="U242">
-        <f>T242/365</f>
+        <f t="shared" si="7"/>
         <v>12.753424657534246</v>
       </c>
     </row>
@@ -21413,11 +21445,11 @@
         <v>30</v>
       </c>
       <c r="T243">
-        <f>DATEDIF(O243,P243,"D")</f>
+        <f t="shared" si="6"/>
         <v>1674</v>
       </c>
       <c r="U243">
-        <f>T243/365</f>
+        <f t="shared" si="7"/>
         <v>4.5863013698630137</v>
       </c>
     </row>
@@ -21480,11 +21512,11 @@
         <v>30</v>
       </c>
       <c r="T244">
-        <f>DATEDIF(O244,P244,"D")</f>
+        <f t="shared" si="6"/>
         <v>2921</v>
       </c>
       <c r="U244">
-        <f>T244/365</f>
+        <f t="shared" si="7"/>
         <v>8.0027397260273965</v>
       </c>
     </row>
@@ -21547,11 +21579,11 @@
         <v>30</v>
       </c>
       <c r="T245">
-        <f>DATEDIF(O245,P245,"D")</f>
+        <f t="shared" si="6"/>
         <v>20106</v>
       </c>
       <c r="U245">
-        <f>T245/365</f>
+        <f t="shared" si="7"/>
         <v>55.084931506849315</v>
       </c>
     </row>
@@ -21614,11 +21646,11 @@
         <v>30</v>
       </c>
       <c r="T246">
-        <f>DATEDIF(O246,P246,"D")</f>
+        <f t="shared" si="6"/>
         <v>2556</v>
       </c>
       <c r="U246">
-        <f>T246/365</f>
+        <f t="shared" si="7"/>
         <v>7.0027397260273974</v>
       </c>
     </row>
@@ -21681,11 +21713,11 @@
         <v>30</v>
       </c>
       <c r="T247">
-        <f>DATEDIF(O247,P247,"D")</f>
+        <f t="shared" si="6"/>
         <v>18992</v>
       </c>
       <c r="U247">
-        <f>T247/365</f>
+        <f t="shared" si="7"/>
         <v>52.032876712328765</v>
       </c>
     </row>
@@ -21748,11 +21780,11 @@
         <v>30</v>
       </c>
       <c r="T248">
-        <f>DATEDIF(O248,P248,"D")</f>
+        <f t="shared" si="6"/>
         <v>13533</v>
       </c>
       <c r="U248">
-        <f>T248/365</f>
+        <f t="shared" si="7"/>
         <v>37.076712328767123</v>
       </c>
     </row>
@@ -21815,11 +21847,11 @@
         <v>30</v>
       </c>
       <c r="T249">
-        <f>DATEDIF(O249,P249,"D")</f>
+        <f t="shared" si="6"/>
         <v>23029</v>
       </c>
       <c r="U249">
-        <f>T249/365</f>
+        <f t="shared" si="7"/>
         <v>63.093150684931508</v>
       </c>
     </row>
@@ -21882,11 +21914,11 @@
         <v>30</v>
       </c>
       <c r="T250">
-        <f>DATEDIF(O250,P250,"D")</f>
+        <f t="shared" si="6"/>
         <v>23029</v>
       </c>
       <c r="U250">
-        <f>T250/365</f>
+        <f t="shared" si="7"/>
         <v>63.093150684931508</v>
       </c>
     </row>
@@ -21949,11 +21981,11 @@
         <v>30</v>
       </c>
       <c r="T251">
-        <f>DATEDIF(O251,P251,"D")</f>
+        <f t="shared" si="6"/>
         <v>3286</v>
       </c>
       <c r="U251">
-        <f>T251/365</f>
+        <f t="shared" si="7"/>
         <v>9.0027397260273965</v>
       </c>
     </row>
@@ -22016,11 +22048,11 @@
         <v>30</v>
       </c>
       <c r="T252">
-        <f>DATEDIF(O252,P252,"D")</f>
+        <f t="shared" si="6"/>
         <v>10226</v>
       </c>
       <c r="U252">
-        <f>T252/365</f>
+        <f t="shared" si="7"/>
         <v>28.016438356164382</v>
       </c>
     </row>
@@ -22083,11 +22115,11 @@
         <v>30</v>
       </c>
       <c r="T253">
-        <f>DATEDIF(O253,P253,"D")</f>
+        <f t="shared" si="6"/>
         <v>30334</v>
       </c>
       <c r="U253">
-        <f>T253/365</f>
+        <f t="shared" si="7"/>
         <v>83.106849315068487</v>
       </c>
     </row>
@@ -22150,11 +22182,11 @@
         <v>30</v>
       </c>
       <c r="T254">
-        <f>DATEDIF(O254,P254,"D")</f>
+        <f t="shared" si="6"/>
         <v>1583</v>
       </c>
       <c r="U254">
-        <f>T254/365</f>
+        <f t="shared" si="7"/>
         <v>4.3369863013698629</v>
       </c>
     </row>
@@ -22217,11 +22249,11 @@
         <v>30</v>
       </c>
       <c r="T255">
-        <f>DATEDIF(O255,P255,"D")</f>
+        <f t="shared" si="6"/>
         <v>14609</v>
       </c>
       <c r="U255">
-        <f>T255/365</f>
+        <f t="shared" si="7"/>
         <v>40.024657534246572</v>
       </c>
     </row>
@@ -22284,11 +22316,11 @@
         <v>30</v>
       </c>
       <c r="T256">
-        <f>DATEDIF(O256,P256,"D")</f>
+        <f t="shared" si="6"/>
         <v>10226</v>
       </c>
       <c r="U256">
-        <f>T256/365</f>
+        <f t="shared" si="7"/>
         <v>28.016438356164382</v>
       </c>
     </row>
@@ -22351,11 +22383,11 @@
         <v>30</v>
       </c>
       <c r="T257">
-        <f>DATEDIF(O257,P257,"D")</f>
+        <f t="shared" si="6"/>
         <v>5477</v>
       </c>
       <c r="U257">
-        <f>T257/365</f>
+        <f t="shared" si="7"/>
         <v>15.005479452054795</v>
       </c>
     </row>
@@ -22418,11 +22450,11 @@
         <v>30</v>
       </c>
       <c r="T258">
-        <f>DATEDIF(O258,P258,"D")</f>
+        <f t="shared" si="6"/>
         <v>7304</v>
       </c>
       <c r="U258">
-        <f>T258/365</f>
+        <f t="shared" si="7"/>
         <v>20.010958904109589</v>
       </c>
     </row>
@@ -22488,7 +22520,7 @@
         <v>24471</v>
       </c>
       <c r="U259">
-        <f>T259/365</f>
+        <f t="shared" si="7"/>
         <v>67.043835616438358</v>
       </c>
     </row>
@@ -22548,11 +22580,11 @@
         <v>30</v>
       </c>
       <c r="T260">
-        <f>DATEDIF(O260,P260,"D")</f>
+        <f t="shared" ref="T260:T291" si="8">DATEDIF(O260,P260,"D")</f>
         <v>14694</v>
       </c>
       <c r="U260">
-        <f>T260/365</f>
+        <f t="shared" ref="U260:U323" si="9">T260/365</f>
         <v>40.257534246575339</v>
       </c>
     </row>
@@ -22615,11 +22647,11 @@
         <v>30</v>
       </c>
       <c r="T261">
-        <f>DATEDIF(O261,P261,"D")</f>
+        <f t="shared" si="8"/>
         <v>1825</v>
       </c>
       <c r="U261">
-        <f>T261/365</f>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
     </row>
@@ -22682,11 +22714,11 @@
         <v>30</v>
       </c>
       <c r="T262">
-        <f>DATEDIF(O262,P262,"D")</f>
+        <f t="shared" si="8"/>
         <v>1582</v>
       </c>
       <c r="U262">
-        <f>T262/365</f>
+        <f t="shared" si="9"/>
         <v>4.3342465753424655</v>
       </c>
     </row>
@@ -22749,11 +22781,11 @@
         <v>30</v>
       </c>
       <c r="T263">
-        <f>DATEDIF(O263,P263,"D")</f>
+        <f t="shared" si="8"/>
         <v>2190</v>
       </c>
       <c r="U263">
-        <f>T263/365</f>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
     </row>
@@ -22816,11 +22848,11 @@
         <v>30</v>
       </c>
       <c r="T264">
-        <f>DATEDIF(O264,P264,"D")</f>
+        <f t="shared" si="8"/>
         <v>2739</v>
       </c>
       <c r="U264">
-        <f>T264/365</f>
+        <f t="shared" si="9"/>
         <v>7.5041095890410956</v>
       </c>
     </row>
@@ -22883,11 +22915,11 @@
         <v>30</v>
       </c>
       <c r="T265">
-        <f>DATEDIF(O265,P265,"D")</f>
+        <f t="shared" si="8"/>
         <v>2555</v>
       </c>
       <c r="U265">
-        <f>T265/365</f>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
     </row>
@@ -22950,11 +22982,11 @@
         <v>30</v>
       </c>
       <c r="T266">
-        <f>DATEDIF(O266,P266,"D")</f>
+        <f t="shared" si="8"/>
         <v>2344</v>
       </c>
       <c r="U266">
-        <f>T266/365</f>
+        <f t="shared" si="9"/>
         <v>6.4219178082191783</v>
       </c>
     </row>
@@ -23017,11 +23049,11 @@
         <v>30</v>
       </c>
       <c r="T267">
-        <f>DATEDIF(O267,P267,"D")</f>
+        <f t="shared" si="8"/>
         <v>1094</v>
       </c>
       <c r="U267">
-        <f>T267/365</f>
+        <f t="shared" si="9"/>
         <v>2.9972602739726026</v>
       </c>
     </row>
@@ -23084,11 +23116,11 @@
         <v>30</v>
       </c>
       <c r="T268">
-        <f>DATEDIF(O268,P268,"D")</f>
+        <f t="shared" si="8"/>
         <v>11505</v>
       </c>
       <c r="U268">
-        <f>T268/365</f>
+        <f t="shared" si="9"/>
         <v>31.520547945205479</v>
       </c>
     </row>
@@ -23151,11 +23183,11 @@
         <v>30</v>
       </c>
       <c r="T269">
-        <f>DATEDIF(O269,P269,"D")</f>
+        <f t="shared" si="8"/>
         <v>3834</v>
       </c>
       <c r="U269">
-        <f>T269/365</f>
+        <f t="shared" si="9"/>
         <v>10.504109589041096</v>
       </c>
     </row>
@@ -23218,11 +23250,11 @@
         <v>30</v>
       </c>
       <c r="T270">
-        <f>DATEDIF(O270,P270,"D")</f>
+        <f t="shared" si="8"/>
         <v>25374</v>
       </c>
       <c r="U270">
-        <f>T270/365</f>
+        <f t="shared" si="9"/>
         <v>69.517808219178079</v>
       </c>
     </row>
@@ -23285,11 +23317,11 @@
         <v>30</v>
       </c>
       <c r="T271">
-        <f>DATEDIF(O271,P271,"D")</f>
+        <f t="shared" si="8"/>
         <v>29949</v>
       </c>
       <c r="U271">
-        <f>T271/365</f>
+        <f t="shared" si="9"/>
         <v>82.052054794520544</v>
       </c>
     </row>
@@ -23352,11 +23384,11 @@
         <v>30</v>
       </c>
       <c r="T272">
-        <f>DATEDIF(O272,P272,"D")</f>
+        <f t="shared" si="8"/>
         <v>6938</v>
       </c>
       <c r="U272">
-        <f>T272/365</f>
+        <f t="shared" si="9"/>
         <v>19.008219178082193</v>
       </c>
     </row>
@@ -23419,11 +23451,11 @@
         <v>30</v>
       </c>
       <c r="T273">
-        <f>DATEDIF(O273,P273,"D")</f>
+        <f t="shared" si="8"/>
         <v>6938</v>
       </c>
       <c r="U273">
-        <f>T273/365</f>
+        <f t="shared" si="9"/>
         <v>19.008219178082193</v>
       </c>
     </row>
@@ -23486,11 +23518,11 @@
         <v>30</v>
       </c>
       <c r="T274">
-        <f>DATEDIF(O274,P274,"D")</f>
+        <f t="shared" si="8"/>
         <v>1094</v>
       </c>
       <c r="U274">
-        <f>T274/365</f>
+        <f t="shared" si="9"/>
         <v>2.9972602739726026</v>
       </c>
     </row>
@@ -23553,11 +23585,11 @@
         <v>30</v>
       </c>
       <c r="T275">
-        <f>DATEDIF(O275,P275,"D")</f>
+        <f t="shared" si="8"/>
         <v>31795</v>
       </c>
       <c r="U275">
-        <f>T275/365</f>
+        <f t="shared" si="9"/>
         <v>87.109589041095887</v>
       </c>
     </row>
@@ -23620,11 +23652,11 @@
         <v>30</v>
       </c>
       <c r="T276">
-        <f>DATEDIF(O276,P276,"D")</f>
+        <f t="shared" si="8"/>
         <v>4748</v>
       </c>
       <c r="U276">
-        <f>T276/365</f>
+        <f t="shared" si="9"/>
         <v>13.008219178082191</v>
       </c>
     </row>
@@ -23687,11 +23719,11 @@
         <v>30</v>
       </c>
       <c r="T277">
-        <f>DATEDIF(O277,P277,"D")</f>
+        <f t="shared" si="8"/>
         <v>23029</v>
       </c>
       <c r="U277">
-        <f>T277/365</f>
+        <f t="shared" si="9"/>
         <v>63.093150684931508</v>
       </c>
     </row>
@@ -23754,11 +23786,11 @@
         <v>30</v>
       </c>
       <c r="T278">
-        <f>DATEDIF(O278,P278,"D")</f>
+        <f t="shared" si="8"/>
         <v>3286</v>
       </c>
       <c r="U278">
-        <f>T278/365</f>
+        <f t="shared" si="9"/>
         <v>9.0027397260273965</v>
       </c>
     </row>
@@ -23821,11 +23853,11 @@
         <v>30</v>
       </c>
       <c r="T279">
-        <f>DATEDIF(O279,P279,"D")</f>
+        <f t="shared" si="8"/>
         <v>26682</v>
       </c>
       <c r="U279">
-        <f>T279/365</f>
+        <f t="shared" si="9"/>
         <v>73.101369863013701</v>
       </c>
     </row>
@@ -23885,11 +23917,11 @@
         <v>30</v>
       </c>
       <c r="T280">
-        <f>DATEDIF(O280,P280,"D")</f>
+        <f t="shared" si="8"/>
         <v>20471</v>
       </c>
       <c r="U280">
-        <f>T280/365</f>
+        <f t="shared" si="9"/>
         <v>56.084931506849315</v>
       </c>
     </row>
@@ -23952,11 +23984,11 @@
         <v>30</v>
       </c>
       <c r="T281">
-        <f>DATEDIF(O281,P281,"D")</f>
+        <f t="shared" si="8"/>
         <v>27047</v>
       </c>
       <c r="U281">
-        <f>T281/365</f>
+        <f t="shared" si="9"/>
         <v>74.101369863013701</v>
       </c>
     </row>
@@ -24019,11 +24051,11 @@
         <v>30</v>
       </c>
       <c r="T282">
-        <f>DATEDIF(O282,P282,"D")</f>
+        <f t="shared" si="8"/>
         <v>20472</v>
       </c>
       <c r="U282">
-        <f>T282/365</f>
+        <f t="shared" si="9"/>
         <v>56.087671232876716</v>
       </c>
     </row>
@@ -24086,11 +24118,11 @@
         <v>30</v>
       </c>
       <c r="T283">
-        <f>DATEDIF(O283,P283,"D")</f>
+        <f t="shared" si="8"/>
         <v>20838</v>
       </c>
       <c r="U283">
-        <f>T283/365</f>
+        <f t="shared" si="9"/>
         <v>57.090410958904108</v>
       </c>
     </row>
@@ -24153,11 +24185,11 @@
         <v>30</v>
       </c>
       <c r="T284">
-        <f>DATEDIF(O284,P284,"D")</f>
+        <f t="shared" si="8"/>
         <v>1582</v>
       </c>
       <c r="U284">
-        <f>T284/365</f>
+        <f t="shared" si="9"/>
         <v>4.3342465753424655</v>
       </c>
     </row>
@@ -24220,11 +24252,11 @@
         <v>30</v>
       </c>
       <c r="T285">
-        <f>DATEDIF(O285,P285,"D")</f>
+        <f t="shared" si="8"/>
         <v>1826</v>
       </c>
       <c r="U285">
-        <f>T285/365</f>
+        <f t="shared" si="9"/>
         <v>5.0027397260273974</v>
       </c>
     </row>
@@ -24287,11 +24319,11 @@
         <v>30</v>
       </c>
       <c r="T286">
-        <f>DATEDIF(O286,P286,"D")</f>
+        <f t="shared" si="8"/>
         <v>2040</v>
       </c>
       <c r="U286">
-        <f>T286/365</f>
+        <f t="shared" si="9"/>
         <v>5.5890410958904111</v>
       </c>
     </row>
@@ -24354,11 +24386,11 @@
         <v>30</v>
       </c>
       <c r="T287">
-        <f>DATEDIF(O287,P287,"D")</f>
+        <f t="shared" si="8"/>
         <v>40196</v>
       </c>
       <c r="U287">
-        <f>T287/365</f>
+        <f t="shared" si="9"/>
         <v>110.12602739726027</v>
       </c>
     </row>
@@ -24421,11 +24453,11 @@
         <v>30</v>
       </c>
       <c r="T288">
-        <f>DATEDIF(O288,P288,"D")</f>
+        <f t="shared" si="8"/>
         <v>1826</v>
       </c>
       <c r="U288">
-        <f>T288/365</f>
+        <f t="shared" si="9"/>
         <v>5.0027397260273974</v>
       </c>
     </row>
@@ -24488,11 +24520,11 @@
         <v>30</v>
       </c>
       <c r="T289">
-        <f>DATEDIF(O289,P289,"D")</f>
+        <f t="shared" si="8"/>
         <v>2556</v>
       </c>
       <c r="U289">
-        <f>T289/365</f>
+        <f t="shared" si="9"/>
         <v>7.0027397260273974</v>
       </c>
     </row>
@@ -24552,11 +24584,11 @@
         <v>30</v>
       </c>
       <c r="T290">
-        <f>DATEDIF(O290,P290,"D")</f>
+        <f t="shared" si="8"/>
         <v>9131</v>
       </c>
       <c r="U290">
-        <f>T290/365</f>
+        <f t="shared" si="9"/>
         <v>25.016438356164382</v>
       </c>
     </row>
@@ -24616,11 +24648,11 @@
         <v>30</v>
       </c>
       <c r="T291">
-        <f>DATEDIF(O291,P291,"D")</f>
+        <f t="shared" si="8"/>
         <v>22462</v>
       </c>
       <c r="U291">
-        <f>T291/365</f>
+        <f t="shared" si="9"/>
         <v>61.539726027397258</v>
       </c>
     </row>
@@ -24683,11 +24715,11 @@
         <v>30</v>
       </c>
       <c r="T292">
-        <f>DATEDIF(O292,P292,"D")</f>
+        <f t="shared" ref="T292:T323" si="10">DATEDIF(O292,P292,"D")</f>
         <v>21549</v>
       </c>
       <c r="U292">
-        <f>T292/365</f>
+        <f t="shared" si="9"/>
         <v>59.038356164383565</v>
       </c>
     </row>
@@ -24750,11 +24782,11 @@
         <v>30</v>
       </c>
       <c r="T293">
-        <f>DATEDIF(O293,P293,"D")</f>
+        <f t="shared" si="10"/>
         <v>27412</v>
       </c>
       <c r="U293">
-        <f>T293/365</f>
+        <f t="shared" si="9"/>
         <v>75.101369863013701</v>
       </c>
     </row>
@@ -24817,11 +24849,11 @@
         <v>30</v>
       </c>
       <c r="T294">
-        <f>DATEDIF(O294,P294,"D")</f>
+        <f t="shared" si="10"/>
         <v>30852</v>
       </c>
       <c r="U294">
-        <f>T294/365</f>
+        <f t="shared" si="9"/>
         <v>84.526027397260279</v>
       </c>
     </row>
@@ -24881,11 +24913,11 @@
         <v>30</v>
       </c>
       <c r="T295">
-        <f>DATEDIF(O295,P295,"D")</f>
+        <f t="shared" si="10"/>
         <v>29726</v>
       </c>
       <c r="U295">
-        <f>T295/365</f>
+        <f t="shared" si="9"/>
         <v>81.441095890410963</v>
       </c>
     </row>
@@ -24942,11 +24974,11 @@
         <v>30</v>
       </c>
       <c r="T296">
-        <f>DATEDIF(O296,P296,"D")</f>
+        <f t="shared" si="10"/>
         <v>364</v>
       </c>
       <c r="U296">
-        <f>T296/365</f>
+        <f t="shared" si="9"/>
         <v>0.99726027397260275</v>
       </c>
     </row>
@@ -25009,11 +25041,11 @@
         <v>30</v>
       </c>
       <c r="T297">
-        <f>DATEDIF(O297,P297,"D")</f>
+        <f t="shared" si="10"/>
         <v>19114</v>
       </c>
       <c r="U297">
-        <f>T297/365</f>
+        <f t="shared" si="9"/>
         <v>52.367123287671234</v>
       </c>
     </row>
@@ -25070,11 +25102,11 @@
         <v>30</v>
       </c>
       <c r="T298">
-        <f>DATEDIF(O298,P298,"D")</f>
+        <f t="shared" si="10"/>
         <v>16253</v>
       </c>
       <c r="U298">
-        <f>T298/365</f>
+        <f t="shared" si="9"/>
         <v>44.528767123287672</v>
       </c>
     </row>
@@ -25131,11 +25163,11 @@
         <v>30</v>
       </c>
       <c r="T299">
-        <f>DATEDIF(O299,P299,"D")</f>
+        <f t="shared" si="10"/>
         <v>1156</v>
       </c>
       <c r="U299">
-        <f>T299/365</f>
+        <f t="shared" si="9"/>
         <v>3.1671232876712327</v>
       </c>
     </row>
@@ -25192,11 +25224,11 @@
         <v>30</v>
       </c>
       <c r="T300">
-        <f>DATEDIF(O300,P300,"D")</f>
+        <f t="shared" si="10"/>
         <v>1095</v>
       </c>
       <c r="U300">
-        <f>T300/365</f>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
     </row>
@@ -25253,11 +25285,11 @@
         <v>30</v>
       </c>
       <c r="T301">
-        <f>DATEDIF(O301,P301,"D")</f>
+        <f t="shared" si="10"/>
         <v>1095</v>
       </c>
       <c r="U301">
-        <f>T301/365</f>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
     </row>
@@ -25314,11 +25346,11 @@
         <v>30</v>
       </c>
       <c r="T302">
-        <f>DATEDIF(O302,P302,"D")</f>
+        <f t="shared" si="10"/>
         <v>364</v>
       </c>
       <c r="U302">
-        <f>T302/365</f>
+        <f t="shared" si="9"/>
         <v>0.99726027397260275</v>
       </c>
     </row>
@@ -25375,11 +25407,11 @@
         <v>30</v>
       </c>
       <c r="T303">
-        <f>DATEDIF(O303,P303,"D")</f>
+        <f t="shared" si="10"/>
         <v>3408</v>
       </c>
       <c r="U303">
-        <f>T303/365</f>
+        <f t="shared" si="9"/>
         <v>9.3369863013698637</v>
       </c>
     </row>
@@ -25436,11 +25468,11 @@
         <v>30</v>
       </c>
       <c r="T304">
-        <f>DATEDIF(O304,P304,"D")</f>
+        <f t="shared" si="10"/>
         <v>12205</v>
       </c>
       <c r="U304">
-        <f>T304/365</f>
+        <f t="shared" si="9"/>
         <v>33.438356164383563</v>
       </c>
     </row>
@@ -25503,11 +25535,11 @@
         <v>30</v>
       </c>
       <c r="T305">
-        <f>DATEDIF(O305,P305,"D")</f>
+        <f t="shared" si="10"/>
         <v>19011</v>
       </c>
       <c r="U305">
-        <f>T305/365</f>
+        <f t="shared" si="9"/>
         <v>52.084931506849315</v>
       </c>
     </row>
@@ -25567,11 +25599,11 @@
         <v>30</v>
       </c>
       <c r="T306">
-        <f>DATEDIF(O306,P306,"D")</f>
+        <f t="shared" si="10"/>
         <v>10783</v>
       </c>
       <c r="U306">
-        <f>T306/365</f>
+        <f t="shared" si="9"/>
         <v>29.542465753424658</v>
       </c>
     </row>
@@ -25631,11 +25663,11 @@
         <v>30</v>
       </c>
       <c r="T307">
-        <f>DATEDIF(O307,P307,"D")</f>
+        <f t="shared" si="10"/>
         <v>29670</v>
       </c>
       <c r="U307">
-        <f>T307/365</f>
+        <f t="shared" si="9"/>
         <v>81.287671232876718</v>
       </c>
     </row>
@@ -25692,11 +25724,11 @@
         <v>30</v>
       </c>
       <c r="T308">
-        <f>DATEDIF(O308,P308,"D")</f>
+        <f t="shared" si="10"/>
         <v>4747</v>
       </c>
       <c r="U308">
-        <f>T308/365</f>
+        <f t="shared" si="9"/>
         <v>13.005479452054795</v>
       </c>
     </row>
@@ -25753,11 +25785,11 @@
         <v>30</v>
       </c>
       <c r="T309">
-        <f>DATEDIF(O309,P309,"D")</f>
+        <f t="shared" si="10"/>
         <v>9130</v>
       </c>
       <c r="U309">
-        <f>T309/365</f>
+        <f t="shared" si="9"/>
         <v>25.013698630136986</v>
       </c>
     </row>
@@ -25814,11 +25846,11 @@
         <v>30</v>
       </c>
       <c r="T310">
-        <f>DATEDIF(O310,P310,"D")</f>
+        <f t="shared" si="10"/>
         <v>2648</v>
       </c>
       <c r="U310">
-        <f>T310/365</f>
+        <f t="shared" si="9"/>
         <v>7.2547945205479456</v>
       </c>
     </row>
@@ -25875,11 +25907,11 @@
         <v>30</v>
       </c>
       <c r="T311">
-        <f>DATEDIF(O311,P311,"D")</f>
+        <f t="shared" si="10"/>
         <v>2648</v>
       </c>
       <c r="U311">
-        <f>T311/365</f>
+        <f t="shared" si="9"/>
         <v>7.2547945205479456</v>
       </c>
     </row>
@@ -25936,11 +25968,11 @@
         <v>30</v>
       </c>
       <c r="T312">
-        <f>DATEDIF(O312,P312,"D")</f>
+        <f t="shared" si="10"/>
         <v>8400</v>
       </c>
       <c r="U312">
-        <f>T312/365</f>
+        <f t="shared" si="9"/>
         <v>23.013698630136986</v>
       </c>
     </row>
@@ -26000,11 +26032,11 @@
         <v>30</v>
       </c>
       <c r="T313">
-        <f>DATEDIF(O313,P313,"D")</f>
+        <f t="shared" si="10"/>
         <v>12788</v>
       </c>
       <c r="U313">
-        <f>T313/365</f>
+        <f t="shared" si="9"/>
         <v>35.035616438356165</v>
       </c>
     </row>
@@ -26064,11 +26096,11 @@
         <v>30</v>
       </c>
       <c r="T314">
-        <f>DATEDIF(O314,P314,"D")</f>
+        <f t="shared" si="10"/>
         <v>12618</v>
       </c>
       <c r="U314">
-        <f>T314/365</f>
+        <f t="shared" si="9"/>
         <v>34.56986301369863</v>
       </c>
     </row>
@@ -26128,11 +26160,11 @@
         <v>30</v>
       </c>
       <c r="T315">
-        <f>DATEDIF(O315,P315,"D")</f>
+        <f t="shared" si="10"/>
         <v>2531</v>
       </c>
       <c r="U315">
-        <f>T315/365</f>
+        <f t="shared" si="9"/>
         <v>6.934246575342466</v>
       </c>
     </row>
@@ -26192,11 +26224,11 @@
         <v>30</v>
       </c>
       <c r="T316">
-        <f>DATEDIF(O316,P316,"D")</f>
+        <f t="shared" si="10"/>
         <v>3052</v>
       </c>
       <c r="U316">
-        <f>T316/365</f>
+        <f t="shared" si="9"/>
         <v>8.3616438356164391</v>
       </c>
     </row>
@@ -26256,11 +26288,11 @@
         <v>30</v>
       </c>
       <c r="T317">
-        <f>DATEDIF(O317,P317,"D")</f>
+        <f t="shared" si="10"/>
         <v>12611</v>
       </c>
       <c r="U317">
-        <f>T317/365</f>
+        <f t="shared" si="9"/>
         <v>34.550684931506851</v>
       </c>
     </row>
@@ -26320,11 +26352,11 @@
         <v>30</v>
       </c>
       <c r="T318">
-        <f>DATEDIF(O318,P318,"D")</f>
+        <f t="shared" si="10"/>
         <v>9027</v>
       </c>
       <c r="U318">
-        <f>T318/365</f>
+        <f t="shared" si="9"/>
         <v>24.731506849315068</v>
       </c>
     </row>
@@ -26384,11 +26416,11 @@
         <v>30</v>
       </c>
       <c r="T319">
-        <f>DATEDIF(O319,P319,"D")</f>
+        <f t="shared" si="10"/>
         <v>12628</v>
       </c>
       <c r="U319">
-        <f>T319/365</f>
+        <f t="shared" si="9"/>
         <v>34.597260273972601</v>
       </c>
     </row>
@@ -26448,11 +26480,11 @@
         <v>30</v>
       </c>
       <c r="T320">
-        <f>DATEDIF(O320,P320,"D")</f>
+        <f t="shared" si="10"/>
         <v>12583</v>
       </c>
       <c r="U320">
-        <f>T320/365</f>
+        <f t="shared" si="9"/>
         <v>34.473972602739728</v>
       </c>
     </row>
@@ -26512,11 +26544,11 @@
         <v>30</v>
       </c>
       <c r="T321">
-        <f>DATEDIF(O321,P321,"D")</f>
+        <f t="shared" si="10"/>
         <v>4921</v>
       </c>
       <c r="U321">
-        <f>T321/365</f>
+        <f t="shared" si="9"/>
         <v>13.482191780821918</v>
       </c>
     </row>
@@ -26576,11 +26608,11 @@
         <v>30</v>
       </c>
       <c r="T322">
-        <f>DATEDIF(O322,P322,"D")</f>
+        <f t="shared" si="10"/>
         <v>3888</v>
       </c>
       <c r="U322">
-        <f>T322/365</f>
+        <f t="shared" si="9"/>
         <v>10.652054794520549</v>
       </c>
     </row>
@@ -26640,11 +26672,11 @@
         <v>30</v>
       </c>
       <c r="T323">
-        <f>DATEDIF(O323,P323,"D")</f>
+        <f t="shared" si="10"/>
         <v>1413</v>
       </c>
       <c r="U323">
-        <f>T323/365</f>
+        <f t="shared" si="9"/>
         <v>3.871232876712329</v>
       </c>
     </row>
@@ -26707,11 +26739,11 @@
         <v>30</v>
       </c>
       <c r="T324">
-        <f>DATEDIF(O324,P324,"D")</f>
+        <f t="shared" ref="T324:T355" si="11">DATEDIF(O324,P324,"D")</f>
         <v>9223</v>
       </c>
       <c r="U324">
-        <f>T324/365</f>
+        <f t="shared" ref="U324:U387" si="12">T324/365</f>
         <v>25.268493150684932</v>
       </c>
     </row>
@@ -26774,11 +26806,11 @@
         <v>30</v>
       </c>
       <c r="T325">
-        <f>DATEDIF(O325,P325,"D")</f>
+        <f t="shared" si="11"/>
         <v>10352</v>
       </c>
       <c r="U325">
-        <f>T325/365</f>
+        <f t="shared" si="12"/>
         <v>28.361643835616437</v>
       </c>
     </row>
@@ -26841,11 +26873,11 @@
         <v>30</v>
       </c>
       <c r="T326">
-        <f>DATEDIF(O326,P326,"D")</f>
+        <f t="shared" si="11"/>
         <v>10000</v>
       </c>
       <c r="U326">
-        <f>T326/365</f>
+        <f t="shared" si="12"/>
         <v>27.397260273972602</v>
       </c>
     </row>
@@ -26908,11 +26940,11 @@
         <v>30</v>
       </c>
       <c r="T327">
-        <f>DATEDIF(O327,P327,"D")</f>
+        <f t="shared" si="11"/>
         <v>3652</v>
       </c>
       <c r="U327">
-        <f>T327/365</f>
+        <f t="shared" si="12"/>
         <v>10.005479452054795</v>
       </c>
     </row>
@@ -26975,11 +27007,11 @@
         <v>30</v>
       </c>
       <c r="T328">
-        <f>DATEDIF(O328,P328,"D")</f>
+        <f t="shared" si="11"/>
         <v>9150</v>
       </c>
       <c r="U328">
-        <f>T328/365</f>
+        <f t="shared" si="12"/>
         <v>25.068493150684933</v>
       </c>
     </row>
@@ -27042,11 +27074,11 @@
         <v>30</v>
       </c>
       <c r="T329">
-        <f>DATEDIF(O329,P329,"D")</f>
+        <f t="shared" si="11"/>
         <v>3287</v>
       </c>
       <c r="U329">
-        <f>T329/365</f>
+        <f t="shared" si="12"/>
         <v>9.0054794520547947</v>
       </c>
     </row>
@@ -27106,11 +27138,11 @@
         <v>30</v>
       </c>
       <c r="T330">
-        <f>DATEDIF(O330,P330,"D")</f>
+        <f t="shared" si="11"/>
         <v>8784</v>
       </c>
       <c r="U330">
-        <f>T330/365</f>
+        <f t="shared" si="12"/>
         <v>24.065753424657533</v>
       </c>
     </row>
@@ -27173,11 +27205,11 @@
         <v>30</v>
       </c>
       <c r="T331">
-        <f>DATEDIF(O331,P331,"D")</f>
+        <f t="shared" si="11"/>
         <v>9880</v>
       </c>
       <c r="U331">
-        <f>T331/365</f>
+        <f t="shared" si="12"/>
         <v>27.068493150684933</v>
       </c>
     </row>
@@ -27237,11 +27269,11 @@
         <v>30</v>
       </c>
       <c r="T332">
-        <f>DATEDIF(O332,P332,"D")</f>
+        <f t="shared" si="11"/>
         <v>8410</v>
       </c>
       <c r="U332">
-        <f>T332/365</f>
+        <f t="shared" si="12"/>
         <v>23.041095890410958</v>
       </c>
     </row>
@@ -27304,11 +27336,11 @@
         <v>30</v>
       </c>
       <c r="T333">
-        <f>DATEDIF(O333,P333,"D")</f>
+        <f t="shared" si="11"/>
         <v>8237</v>
       </c>
       <c r="U333">
-        <f>T333/365</f>
+        <f t="shared" si="12"/>
         <v>22.567123287671233</v>
       </c>
     </row>
@@ -27368,11 +27400,11 @@
         <v>30</v>
       </c>
       <c r="T334">
-        <f>DATEDIF(O334,P334,"D")</f>
+        <f t="shared" si="11"/>
         <v>4946</v>
       </c>
       <c r="U334">
-        <f>T334/365</f>
+        <f t="shared" si="12"/>
         <v>13.550684931506849</v>
       </c>
     </row>
@@ -27432,11 +27464,11 @@
         <v>30</v>
       </c>
       <c r="T335">
-        <f>DATEDIF(O335,P335,"D")</f>
+        <f t="shared" si="11"/>
         <v>7776</v>
       </c>
       <c r="U335">
-        <f>T335/365</f>
+        <f t="shared" si="12"/>
         <v>21.304109589041097</v>
       </c>
     </row>
@@ -27496,11 +27528,11 @@
         <v>30</v>
       </c>
       <c r="T336">
-        <f>DATEDIF(O336,P336,"D")</f>
+        <f t="shared" si="11"/>
         <v>8783</v>
       </c>
       <c r="U336">
-        <f>T336/365</f>
+        <f t="shared" si="12"/>
         <v>24.063013698630137</v>
       </c>
     </row>
@@ -27560,11 +27592,11 @@
         <v>30</v>
       </c>
       <c r="T337">
-        <f>DATEDIF(O337,P337,"D")</f>
+        <f t="shared" si="11"/>
         <v>8886</v>
       </c>
       <c r="U337">
-        <f>T337/365</f>
+        <f t="shared" si="12"/>
         <v>24.345205479452055</v>
       </c>
     </row>
@@ -27627,11 +27659,11 @@
         <v>30</v>
       </c>
       <c r="T338">
-        <f>DATEDIF(O338,P338,"D")</f>
+        <f t="shared" si="11"/>
         <v>8389</v>
       </c>
       <c r="U338">
-        <f>T338/365</f>
+        <f t="shared" si="12"/>
         <v>22.983561643835618</v>
       </c>
     </row>
@@ -27694,11 +27726,11 @@
         <v>30</v>
       </c>
       <c r="T339">
-        <f>DATEDIF(O339,P339,"D")</f>
+        <f t="shared" si="11"/>
         <v>8566</v>
       </c>
       <c r="U339">
-        <f>T339/365</f>
+        <f t="shared" si="12"/>
         <v>23.468493150684932</v>
       </c>
     </row>
@@ -27758,11 +27790,11 @@
         <v>30</v>
       </c>
       <c r="T340">
-        <f>DATEDIF(O340,P340,"D")</f>
+        <f t="shared" si="11"/>
         <v>28</v>
       </c>
       <c r="U340">
-        <f>T340/365</f>
+        <f t="shared" si="12"/>
         <v>7.6712328767123292E-2</v>
       </c>
     </row>
@@ -27822,11 +27854,11 @@
         <v>30</v>
       </c>
       <c r="T341">
-        <f>DATEDIF(O341,P341,"D")</f>
+        <f t="shared" si="11"/>
         <v>851</v>
       </c>
       <c r="U341">
-        <f>T341/365</f>
+        <f t="shared" si="12"/>
         <v>2.3315068493150686</v>
       </c>
     </row>
@@ -27886,11 +27918,11 @@
         <v>30</v>
       </c>
       <c r="T342">
-        <f>DATEDIF(O342,P342,"D")</f>
+        <f t="shared" si="11"/>
         <v>7736</v>
       </c>
       <c r="U342">
-        <f>T342/365</f>
+        <f t="shared" si="12"/>
         <v>21.194520547945206</v>
       </c>
     </row>
@@ -27947,11 +27979,11 @@
         <v>30</v>
       </c>
       <c r="T343">
-        <f>DATEDIF(O343,P343,"D")</f>
+        <f t="shared" si="11"/>
         <v>7581</v>
       </c>
       <c r="U343">
-        <f>T343/365</f>
+        <f t="shared" si="12"/>
         <v>20.769863013698629</v>
       </c>
     </row>
@@ -28011,11 +28043,11 @@
         <v>30</v>
       </c>
       <c r="T344">
-        <f>DATEDIF(O344,P344,"D")</f>
+        <f t="shared" si="11"/>
         <v>3194</v>
       </c>
       <c r="U344">
-        <f>T344/365</f>
+        <f t="shared" si="12"/>
         <v>8.75068493150685</v>
       </c>
     </row>
@@ -28078,11 +28110,11 @@
         <v>30</v>
       </c>
       <c r="T345">
-        <f>DATEDIF(O345,P345,"D")</f>
+        <f t="shared" si="11"/>
         <v>8054</v>
       </c>
       <c r="U345">
-        <f>T345/365</f>
+        <f t="shared" si="12"/>
         <v>22.065753424657533</v>
       </c>
     </row>
@@ -28142,11 +28174,11 @@
         <v>30</v>
       </c>
       <c r="T346">
-        <f>DATEDIF(O346,P346,"D")</f>
+        <f t="shared" si="11"/>
         <v>7098</v>
       </c>
       <c r="U346">
-        <f>T346/365</f>
+        <f t="shared" si="12"/>
         <v>19.446575342465753</v>
       </c>
     </row>
@@ -28209,11 +28241,11 @@
         <v>30</v>
       </c>
       <c r="T347">
-        <f>DATEDIF(O347,P347,"D")</f>
+        <f t="shared" si="11"/>
         <v>2375</v>
       </c>
       <c r="U347">
-        <f>T347/365</f>
+        <f t="shared" si="12"/>
         <v>6.506849315068493</v>
       </c>
     </row>
@@ -28276,11 +28308,11 @@
         <v>30</v>
       </c>
       <c r="T348">
-        <f>DATEDIF(O348,P348,"D")</f>
+        <f t="shared" si="11"/>
         <v>7689</v>
       </c>
       <c r="U348">
-        <f>T348/365</f>
+        <f t="shared" si="12"/>
         <v>21.065753424657533</v>
       </c>
     </row>
@@ -28343,11 +28375,11 @@
         <v>30</v>
       </c>
       <c r="T349">
-        <f>DATEDIF(O349,P349,"D")</f>
+        <f t="shared" si="11"/>
         <v>3773</v>
       </c>
       <c r="U349">
-        <f>T349/365</f>
+        <f t="shared" si="12"/>
         <v>10.336986301369864</v>
       </c>
     </row>
@@ -28410,11 +28442,11 @@
         <v>30</v>
       </c>
       <c r="T350">
-        <f>DATEDIF(O350,P350,"D")</f>
+        <f t="shared" si="11"/>
         <v>6685</v>
       </c>
       <c r="U350">
-        <f>T350/365</f>
+        <f t="shared" si="12"/>
         <v>18.315068493150687</v>
       </c>
     </row>
@@ -28477,11 +28509,11 @@
         <v>30</v>
       </c>
       <c r="T351">
-        <f>DATEDIF(O351,P351,"D")</f>
+        <f t="shared" si="11"/>
         <v>6369</v>
       </c>
       <c r="U351">
-        <f>T351/365</f>
+        <f t="shared" si="12"/>
         <v>17.449315068493149</v>
       </c>
     </row>
@@ -28544,11 +28576,11 @@
         <v>30</v>
       </c>
       <c r="T352">
-        <f>DATEDIF(O352,P352,"D")</f>
+        <f t="shared" si="11"/>
         <v>4861</v>
       </c>
       <c r="U352">
-        <f>T352/365</f>
+        <f t="shared" si="12"/>
         <v>13.317808219178081</v>
       </c>
     </row>
@@ -28611,11 +28643,11 @@
         <v>30</v>
       </c>
       <c r="T353">
-        <f>DATEDIF(O353,P353,"D")</f>
+        <f t="shared" si="11"/>
         <v>6320</v>
       </c>
       <c r="U353">
-        <f>T353/365</f>
+        <f t="shared" si="12"/>
         <v>17.315068493150687</v>
       </c>
     </row>
@@ -28678,11 +28710,11 @@
         <v>30</v>
       </c>
       <c r="T354">
-        <f>DATEDIF(O354,P354,"D")</f>
+        <f t="shared" si="11"/>
         <v>6320</v>
       </c>
       <c r="U354">
-        <f>T354/365</f>
+        <f t="shared" si="12"/>
         <v>17.315068493150687</v>
       </c>
     </row>
@@ -28745,11 +28777,11 @@
         <v>30</v>
       </c>
       <c r="T355">
-        <f>DATEDIF(O355,P355,"D")</f>
+        <f t="shared" si="11"/>
         <v>6320</v>
       </c>
       <c r="U355">
-        <f>T355/365</f>
+        <f t="shared" si="12"/>
         <v>17.315068493150687</v>
       </c>
     </row>
@@ -28806,11 +28838,11 @@
         <v>30</v>
       </c>
       <c r="T356">
-        <f>DATEDIF(O356,P356,"D")</f>
+        <f t="shared" ref="T356:T387" si="13">DATEDIF(O356,P356,"D")</f>
         <v>99</v>
       </c>
       <c r="U356">
-        <f>T356/365</f>
+        <f t="shared" si="12"/>
         <v>0.27123287671232876</v>
       </c>
     </row>
@@ -28870,11 +28902,11 @@
         <v>30</v>
       </c>
       <c r="T357">
-        <f>DATEDIF(O357,P357,"D")</f>
+        <f t="shared" si="13"/>
         <v>6020</v>
       </c>
       <c r="U357">
-        <f>T357/365</f>
+        <f t="shared" si="12"/>
         <v>16.493150684931507</v>
       </c>
     </row>
@@ -28934,11 +28966,11 @@
         <v>30</v>
       </c>
       <c r="T358">
-        <f>DATEDIF(O358,P358,"D")</f>
+        <f t="shared" si="13"/>
         <v>5922</v>
       </c>
       <c r="U358">
-        <f>T358/365</f>
+        <f t="shared" si="12"/>
         <v>16.224657534246575</v>
       </c>
     </row>
@@ -28998,11 +29030,11 @@
         <v>30</v>
       </c>
       <c r="T359">
-        <f>DATEDIF(O359,P359,"D")</f>
+        <f t="shared" si="13"/>
         <v>5988</v>
       </c>
       <c r="U359">
-        <f>T359/365</f>
+        <f t="shared" si="12"/>
         <v>16.405479452054795</v>
       </c>
     </row>
@@ -29065,11 +29097,11 @@
         <v>30</v>
       </c>
       <c r="T360">
-        <f>DATEDIF(O360,P360,"D")</f>
+        <f t="shared" si="13"/>
         <v>3135</v>
       </c>
       <c r="U360">
-        <f>T360/365</f>
+        <f t="shared" si="12"/>
         <v>8.5890410958904102</v>
       </c>
     </row>
@@ -29129,11 +29161,11 @@
         <v>30</v>
       </c>
       <c r="T361">
-        <f>DATEDIF(O361,P361,"D")</f>
+        <f t="shared" si="13"/>
         <v>5312</v>
       </c>
       <c r="U361">
-        <f>T361/365</f>
+        <f t="shared" si="12"/>
         <v>14.553424657534247</v>
       </c>
     </row>
@@ -29193,11 +29225,11 @@
         <v>30</v>
       </c>
       <c r="T362">
-        <f>DATEDIF(O362,P362,"D")</f>
+        <f t="shared" si="13"/>
         <v>60</v>
       </c>
       <c r="U362">
-        <f>T362/365</f>
+        <f t="shared" si="12"/>
         <v>0.16438356164383561</v>
       </c>
     </row>
@@ -29260,11 +29292,11 @@
         <v>30</v>
       </c>
       <c r="T363">
-        <f>DATEDIF(O363,P363,"D")</f>
+        <f t="shared" si="13"/>
         <v>5285</v>
       </c>
       <c r="U363">
-        <f>T363/365</f>
+        <f t="shared" si="12"/>
         <v>14.479452054794521</v>
       </c>
     </row>
@@ -29324,11 +29356,11 @@
         <v>30</v>
       </c>
       <c r="T364">
-        <f>DATEDIF(O364,P364,"D")</f>
+        <f t="shared" si="13"/>
         <v>4950</v>
       </c>
       <c r="U364">
-        <f>T364/365</f>
+        <f t="shared" si="12"/>
         <v>13.561643835616438</v>
       </c>
     </row>
@@ -29388,11 +29420,11 @@
         <v>30</v>
       </c>
       <c r="T365">
-        <f>DATEDIF(O365,P365,"D")</f>
+        <f t="shared" si="13"/>
         <v>2009</v>
       </c>
       <c r="U365">
-        <f>T365/365</f>
+        <f t="shared" si="12"/>
         <v>5.5041095890410956</v>
       </c>
     </row>
@@ -29440,11 +29472,11 @@
         <v>30</v>
       </c>
       <c r="T366">
-        <f>DATEDIF(O366,P366,"D")</f>
+        <f t="shared" si="13"/>
         <v>4924</v>
       </c>
       <c r="U366">
-        <f>T366/365</f>
+        <f t="shared" si="12"/>
         <v>13.490410958904109</v>
       </c>
     </row>
@@ -29504,11 +29536,11 @@
         <v>30</v>
       </c>
       <c r="T367">
-        <f>DATEDIF(O367,P367,"D")</f>
+        <f t="shared" si="13"/>
         <v>4016</v>
       </c>
       <c r="U367">
-        <f>T367/365</f>
+        <f t="shared" si="12"/>
         <v>11.002739726027396</v>
       </c>
     </row>
@@ -29568,11 +29600,11 @@
         <v>30</v>
       </c>
       <c r="T368">
-        <f>DATEDIF(O368,P368,"D")</f>
+        <f t="shared" si="13"/>
         <v>3805</v>
       </c>
       <c r="U368">
-        <f>T368/365</f>
+        <f t="shared" si="12"/>
         <v>10.424657534246576</v>
       </c>
     </row>
@@ -29632,11 +29664,11 @@
         <v>30</v>
       </c>
       <c r="T369">
-        <f>DATEDIF(O369,P369,"D")</f>
+        <f t="shared" si="13"/>
         <v>4170</v>
       </c>
       <c r="U369">
-        <f>T369/365</f>
+        <f t="shared" si="12"/>
         <v>11.424657534246576</v>
       </c>
     </row>
@@ -29696,11 +29728,11 @@
         <v>30</v>
       </c>
       <c r="T370">
-        <f>DATEDIF(O370,P370,"D")</f>
+        <f t="shared" si="13"/>
         <v>4170</v>
       </c>
       <c r="U370">
-        <f>T370/365</f>
+        <f t="shared" si="12"/>
         <v>11.424657534246576</v>
       </c>
     </row>
@@ -29760,11 +29792,11 @@
         <v>30</v>
       </c>
       <c r="T371">
-        <f>DATEDIF(O371,P371,"D")</f>
+        <f t="shared" si="13"/>
         <v>4133</v>
       </c>
       <c r="U371">
-        <f>T371/365</f>
+        <f t="shared" si="12"/>
         <v>11.323287671232876</v>
       </c>
     </row>
@@ -29824,11 +29856,11 @@
         <v>30</v>
       </c>
       <c r="T372">
-        <f>DATEDIF(O372,P372,"D")</f>
+        <f t="shared" si="13"/>
         <v>4133</v>
       </c>
       <c r="U372">
-        <f>T372/365</f>
+        <f t="shared" si="12"/>
         <v>11.323287671232876</v>
       </c>
     </row>
@@ -29888,11 +29920,11 @@
         <v>30</v>
       </c>
       <c r="T373">
-        <f>DATEDIF(O373,P373,"D")</f>
+        <f t="shared" si="13"/>
         <v>4133</v>
       </c>
       <c r="U373">
-        <f>T373/365</f>
+        <f t="shared" si="12"/>
         <v>11.323287671232876</v>
       </c>
     </row>
@@ -29952,11 +29984,11 @@
         <v>30</v>
       </c>
       <c r="T374">
-        <f>DATEDIF(O374,P374,"D")</f>
+        <f t="shared" si="13"/>
         <v>4134</v>
       </c>
       <c r="U374">
-        <f>T374/365</f>
+        <f t="shared" si="12"/>
         <v>11.326027397260274</v>
       </c>
     </row>
@@ -30016,11 +30048,11 @@
         <v>30</v>
       </c>
       <c r="T375">
-        <f>DATEDIF(O375,P375,"D")</f>
+        <f t="shared" si="13"/>
         <v>3279</v>
       </c>
       <c r="U375">
-        <f>T375/365</f>
+        <f t="shared" si="12"/>
         <v>8.9835616438356158</v>
       </c>
     </row>
@@ -30080,11 +30112,11 @@
         <v>30</v>
       </c>
       <c r="T376">
-        <f>DATEDIF(O376,P376,"D")</f>
+        <f t="shared" si="13"/>
         <v>8765</v>
       </c>
       <c r="U376">
-        <f>T376/365</f>
+        <f t="shared" si="12"/>
         <v>24.013698630136986</v>
       </c>
     </row>
@@ -30147,11 +30179,11 @@
         <v>30</v>
       </c>
       <c r="T377">
-        <f>DATEDIF(O377,P377,"D")</f>
+        <f t="shared" si="13"/>
         <v>4018</v>
       </c>
       <c r="U377">
-        <f>T377/365</f>
+        <f t="shared" si="12"/>
         <v>11.008219178082191</v>
       </c>
     </row>
@@ -30214,11 +30246,11 @@
         <v>30</v>
       </c>
       <c r="T378">
-        <f>DATEDIF(O378,P378,"D")</f>
+        <f t="shared" si="13"/>
         <v>1644</v>
       </c>
       <c r="U378">
-        <f>T378/365</f>
+        <f t="shared" si="12"/>
         <v>4.5041095890410956</v>
       </c>
     </row>
@@ -30281,11 +30313,11 @@
         <v>30</v>
       </c>
       <c r="T379">
-        <f>DATEDIF(O379,P379,"D")</f>
+        <f t="shared" si="13"/>
         <v>3459</v>
       </c>
       <c r="U379">
-        <f>T379/365</f>
+        <f t="shared" si="12"/>
         <v>9.4767123287671229</v>
       </c>
     </row>
@@ -30345,11 +30377,11 @@
         <v>30</v>
       </c>
       <c r="T380">
-        <f>DATEDIF(O380,P380,"D")</f>
+        <f t="shared" si="13"/>
         <v>18779</v>
       </c>
       <c r="U380">
-        <f>T380/365</f>
+        <f t="shared" si="12"/>
         <v>51.449315068493149</v>
       </c>
     </row>
@@ -30409,11 +30441,11 @@
         <v>30</v>
       </c>
       <c r="T381">
-        <f>DATEDIF(O381,P381,"D")</f>
+        <f t="shared" si="13"/>
         <v>32871</v>
       </c>
       <c r="U381">
-        <f>T381/365</f>
+        <f t="shared" si="12"/>
         <v>90.057534246575344</v>
       </c>
     </row>
@@ -30476,11 +30508,11 @@
         <v>30</v>
       </c>
       <c r="T382">
-        <f>DATEDIF(O382,P382,"D")</f>
+        <f t="shared" si="13"/>
         <v>7689</v>
       </c>
       <c r="U382">
-        <f>T382/365</f>
+        <f t="shared" si="12"/>
         <v>21.065753424657533</v>
       </c>
     </row>
@@ -30540,11 +30572,11 @@
         <v>30</v>
       </c>
       <c r="T383">
-        <f>DATEDIF(O383,P383,"D")</f>
+        <f t="shared" si="13"/>
         <v>2895</v>
       </c>
       <c r="U383">
-        <f>T383/365</f>
+        <f t="shared" si="12"/>
         <v>7.9315068493150687</v>
       </c>
     </row>
@@ -30604,11 +30636,11 @@
         <v>30</v>
       </c>
       <c r="T384">
-        <f>DATEDIF(O384,P384,"D")</f>
+        <f t="shared" si="13"/>
         <v>1459</v>
       </c>
       <c r="U384">
-        <f>T384/365</f>
+        <f t="shared" si="12"/>
         <v>3.9972602739726026</v>
       </c>
     </row>
@@ -30665,11 +30697,11 @@
         <v>30</v>
       </c>
       <c r="T385">
-        <f>DATEDIF(O385,P385,"D")</f>
+        <f t="shared" si="13"/>
         <v>261</v>
       </c>
       <c r="U385">
-        <f>T385/365</f>
+        <f t="shared" si="12"/>
         <v>0.71506849315068488</v>
       </c>
     </row>
@@ -30726,11 +30758,11 @@
         <v>30</v>
       </c>
       <c r="T386">
-        <f>DATEDIF(O386,P386,"D")</f>
+        <f t="shared" si="13"/>
         <v>69</v>
       </c>
       <c r="U386">
-        <f>T386/365</f>
+        <f t="shared" si="12"/>
         <v>0.18904109589041096</v>
       </c>
     </row>
@@ -30787,11 +30819,11 @@
         <v>30</v>
       </c>
       <c r="T387">
-        <f>DATEDIF(O387,P387,"D")</f>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="U387">
-        <f>T387/365</f>
+        <f t="shared" si="12"/>
         <v>5.4794520547945206E-3</v>
       </c>
     </row>
@@ -30848,11 +30880,11 @@
         <v>30</v>
       </c>
       <c r="T388">
-        <f>DATEDIF(O388,P388,"D")</f>
+        <f t="shared" ref="T388:T396" si="14">DATEDIF(O388,P388,"D")</f>
         <v>840</v>
       </c>
       <c r="U388">
-        <f>T388/365</f>
+        <f t="shared" ref="U388:U451" si="15">T388/365</f>
         <v>2.3013698630136985</v>
       </c>
     </row>
@@ -30909,11 +30941,11 @@
         <v>30</v>
       </c>
       <c r="T389">
-        <f>DATEDIF(O389,P389,"D")</f>
+        <f t="shared" si="14"/>
         <v>821</v>
       </c>
       <c r="U389">
-        <f>T389/365</f>
+        <f t="shared" si="15"/>
         <v>2.2493150684931509</v>
       </c>
     </row>
@@ -30970,11 +31002,11 @@
         <v>30</v>
       </c>
       <c r="T390">
-        <f>DATEDIF(O390,P390,"D")</f>
+        <f t="shared" si="14"/>
         <v>870</v>
       </c>
       <c r="U390">
-        <f>T390/365</f>
+        <f t="shared" si="15"/>
         <v>2.3835616438356166</v>
       </c>
     </row>
@@ -31031,11 +31063,11 @@
         <v>30</v>
       </c>
       <c r="T391">
-        <f>DATEDIF(O391,P391,"D")</f>
+        <f t="shared" si="14"/>
         <v>842</v>
       </c>
       <c r="U391">
-        <f>T391/365</f>
+        <f t="shared" si="15"/>
         <v>2.3068493150684932</v>
       </c>
     </row>
@@ -31092,11 +31124,11 @@
         <v>30</v>
       </c>
       <c r="T392">
-        <f>DATEDIF(O392,P392,"D")</f>
+        <f t="shared" si="14"/>
         <v>837</v>
       </c>
       <c r="U392">
-        <f>T392/365</f>
+        <f t="shared" si="15"/>
         <v>2.2931506849315069</v>
       </c>
     </row>
@@ -31153,11 +31185,11 @@
         <v>30</v>
       </c>
       <c r="T393">
-        <f>DATEDIF(O393,P393,"D")</f>
+        <f t="shared" si="14"/>
         <v>828</v>
       </c>
       <c r="U393">
-        <f>T393/365</f>
+        <f t="shared" si="15"/>
         <v>2.2684931506849315</v>
       </c>
     </row>
@@ -31214,11 +31246,11 @@
         <v>30</v>
       </c>
       <c r="T394">
-        <f>DATEDIF(O394,P394,"D")</f>
+        <f t="shared" si="14"/>
         <v>23</v>
       </c>
       <c r="U394">
-        <f>T394/365</f>
+        <f t="shared" si="15"/>
         <v>6.3013698630136991E-2</v>
       </c>
     </row>
@@ -31275,11 +31307,11 @@
         <v>30</v>
       </c>
       <c r="T395">
-        <f>DATEDIF(O395,P395,"D")</f>
+        <f t="shared" si="14"/>
         <v>315</v>
       </c>
       <c r="U395">
-        <f>T395/365</f>
+        <f t="shared" si="15"/>
         <v>0.86301369863013699</v>
       </c>
     </row>
@@ -31336,11 +31368,11 @@
         <v>30</v>
       </c>
       <c r="T396">
-        <f>DATEDIF(O396,P396,"D")</f>
+        <f t="shared" si="14"/>
         <v>492</v>
       </c>
       <c r="U396">
-        <f>T396/365</f>
+        <f t="shared" si="15"/>
         <v>1.3479452054794521</v>
       </c>
     </row>
